--- a/sriramModel-nelson-melancholic-patientID_17-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.88065965031025</v>
+        <v>20.80174045564401</v>
       </c>
       <c r="C2">
-        <v>20.77590868403595</v>
+        <v>20.77488336689809</v>
       </c>
       <c r="D2">
-        <v>20.74380686210499</v>
+        <v>20.83388888700702</v>
       </c>
       <c r="E2">
-        <v>20.78420896320369</v>
+        <v>20.77790318943778</v>
       </c>
       <c r="F2">
-        <v>20.74581401628924</v>
+        <v>20.85167847350011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.09843775241865</v>
+        <v>20.93994772926874</v>
       </c>
       <c r="C3">
-        <v>20.8880952820902</v>
+        <v>20.88737916698783</v>
       </c>
       <c r="D3">
-        <v>20.82411814788601</v>
+        <v>21.01583713507984</v>
       </c>
       <c r="E3">
-        <v>20.9023738723005</v>
+        <v>20.89440634561675</v>
       </c>
       <c r="F3">
-        <v>20.82841408793858</v>
+        <v>21.04336932756061</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.35295680346213</v>
+        <v>21.11422787795121</v>
       </c>
       <c r="C4">
-        <v>21.03629170467826</v>
+        <v>21.03707987191656</v>
       </c>
       <c r="D4">
-        <v>20.94061034047606</v>
+        <v>21.24550185840156</v>
       </c>
       <c r="E4">
-        <v>21.05439493206925</v>
+        <v>21.04917470416371</v>
       </c>
       <c r="F4">
-        <v>20.94760102913863</v>
+        <v>21.27470543363405</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.64386755279216</v>
+        <v>21.32422202630413</v>
       </c>
       <c r="C5">
-        <v>21.22024231371964</v>
+        <v>21.22359899263012</v>
       </c>
       <c r="D5">
-        <v>21.0929861999233</v>
+        <v>21.52255045864359</v>
       </c>
       <c r="E5">
-        <v>21.24018193080892</v>
+        <v>21.24190204283613</v>
       </c>
       <c r="F5">
-        <v>21.1031852075448</v>
+        <v>21.54532807161534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.97084500200744</v>
+        <v>21.56960134371381</v>
       </c>
       <c r="C6">
-        <v>21.43970203636355</v>
+        <v>21.44656901053</v>
       </c>
       <c r="D6">
-        <v>21.2809715926858</v>
+        <v>21.8466581285301</v>
       </c>
       <c r="E6">
-        <v>21.45965233001877</v>
+        <v>21.47230658636529</v>
       </c>
       <c r="F6">
-        <v>21.29498518367189</v>
+        <v>21.85488501833444</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.33358524412032</v>
+        <v>21.85006235073164</v>
       </c>
       <c r="C7">
-        <v>21.69443574156488</v>
+        <v>21.7056392088949</v>
       </c>
       <c r="D7">
-        <v>21.50431218888485</v>
+        <v>22.21750714422172</v>
       </c>
       <c r="E7">
-        <v>21.71272950392538</v>
+        <v>21.74012702810234</v>
       </c>
       <c r="F7">
-        <v>21.52282710553731</v>
+        <v>22.20302947447326</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.73180314191998</v>
+        <v>22.16532346246969</v>
       </c>
       <c r="C8">
-        <v>21.9842173419638</v>
+        <v>22.00047468541836</v>
       </c>
       <c r="D8">
-        <v>21.76277113050056</v>
+        <v>22.63478560996774</v>
       </c>
       <c r="E8">
-        <v>21.99934160224484</v>
+        <v>22.0451196308003</v>
       </c>
       <c r="F8">
-        <v>21.78654405990127</v>
+        <v>22.58941970161394</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.16522990994888</v>
+        <v>22.51512185489052</v>
       </c>
       <c r="C9">
-        <v>22.30882903059469</v>
+        <v>22.33075505486218</v>
       </c>
       <c r="D9">
-        <v>22.05612681806441</v>
+        <v>23.09818595640665</v>
       </c>
       <c r="E9">
-        <v>22.31942064067785</v>
+        <v>22.38705585469991</v>
       </c>
       <c r="F9">
-        <v>22.0859754117504</v>
+        <v>23.01371820205578</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.63361099451182</v>
+        <v>22.89921098335048</v>
       </c>
       <c r="C10">
-        <v>22.66806065755117</v>
+        <v>22.69617325437808</v>
       </c>
       <c r="D10">
-        <v>22.38417116812155</v>
+        <v>23.60740336942876</v>
       </c>
       <c r="E10">
-        <v>22.67290174702621</v>
+        <v>22.76572036137397</v>
       </c>
       <c r="F10">
-        <v>22.42096628121118</v>
+        <v>23.4755909465492</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.13670472348696</v>
+        <v>23.31735852061476</v>
       </c>
       <c r="C11">
-        <v>23.06170914190573</v>
+        <v>23.0964345128581</v>
       </c>
       <c r="D11">
-        <v>22.74670813545587</v>
+        <v>24.16213407071959</v>
       </c>
       <c r="E11">
-        <v>23.05972258323663</v>
+        <v>23.18090909842553</v>
       </c>
       <c r="F11">
-        <v>22.79136705731505</v>
+        <v>23.97470647200967</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.67428080220376</v>
+        <v>23.76934438732587</v>
       </c>
       <c r="C12">
-        <v>23.48957792752943</v>
+        <v>23.53125544108878</v>
       </c>
       <c r="D12">
-        <v>23.14355243846959</v>
+        <v>24.76207335992642</v>
       </c>
       <c r="E12">
-        <v>23.47982283559467</v>
+        <v>23.63242761436881</v>
       </c>
       <c r="F12">
-        <v>23.19703294754101</v>
+        <v>24.51073501773195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.24611892196704</v>
+        <v>24.25495909268111</v>
       </c>
       <c r="C13">
-        <v>23.95147647556045</v>
+        <v>24.0003632341044</v>
       </c>
       <c r="D13">
-        <v>23.5745282920759</v>
+        <v>25.40691340182138</v>
       </c>
       <c r="E13">
-        <v>23.93314381316539</v>
+        <v>24.12008979553423</v>
       </c>
       <c r="F13">
-        <v>23.63782354159363</v>
+        <v>25.08334768735878</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.85200752237945</v>
+        <v>24.77400236436986</v>
       </c>
       <c r="C14">
-        <v>24.44721979529998</v>
+        <v>24.50349486504386</v>
       </c>
       <c r="D14">
-        <v>24.03946848890799</v>
+        <v>26.09634075065305</v>
       </c>
       <c r="E14">
-        <v>24.41962810917095</v>
+        <v>24.64371658374234</v>
       </c>
       <c r="F14">
-        <v>24.1136024025586</v>
+        <v>25.69221556381353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.49174276936626</v>
+        <v>25.32628190019494</v>
       </c>
       <c r="C15">
-        <v>24.97662798959015</v>
+        <v>25.04039636888779</v>
       </c>
       <c r="D15">
-        <v>24.53821354182081</v>
+        <v>26.83003357960093</v>
       </c>
       <c r="E15">
-        <v>24.93921931142273</v>
+        <v>25.20313466569654</v>
       </c>
       <c r="F15">
-        <v>24.62423666755765</v>
+        <v>26.33700874268075</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.16512756098724</v>
+        <v>25.91161220704849</v>
       </c>
       <c r="C16">
-        <v>25.53952586799877</v>
+        <v>25.61082215816883</v>
       </c>
       <c r="D16">
-        <v>25.07061092673664</v>
+        <v>27.60765853989714</v>
       </c>
       <c r="E16">
-        <v>25.49186173493252</v>
+        <v>25.79817523899521</v>
       </c>
       <c r="F16">
-        <v>25.16959669342423</v>
+        <v>27.01739527867334</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.87197054973981</v>
+        <v>26.52981347715718</v>
       </c>
       <c r="C17">
-        <v>26.13574261153831</v>
+        <v>26.2145344212173</v>
       </c>
       <c r="D17">
-        <v>25.63651436063439</v>
+        <v>28.42886720951205</v>
       </c>
       <c r="E17">
-        <v>26.07750014568889</v>
+        <v>26.42867280088342</v>
       </c>
       <c r="F17">
-        <v>25.74955573798665</v>
+        <v>27.73304004234636</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.61208512082342</v>
+        <v>27.18071053068417</v>
       </c>
       <c r="C18">
-        <v>26.76511138720274</v>
+        <v>26.85130253353819</v>
       </c>
       <c r="D18">
-        <v>26.2357831911718</v>
+        <v>29.29329206574336</v>
       </c>
       <c r="E18">
-        <v>26.69607949810608</v>
+        <v>27.09446403838378</v>
       </c>
       <c r="F18">
-        <v>26.36398960672374</v>
+        <v>28.48360347511354</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.38528842840837</v>
+        <v>27.86413188718569</v>
       </c>
       <c r="C19">
-        <v>27.42746897688564</v>
+        <v>27.52090267413788</v>
       </c>
       <c r="D19">
-        <v>26.86828166126744</v>
+        <v>30.20054186662441</v>
       </c>
       <c r="E19">
-        <v>27.34754473339586</v>
+        <v>27.79538658170816</v>
       </c>
       <c r="F19">
-        <v>27.01277631472338</v>
+        <v>29.26874022200208</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19140040467481</v>
+        <v>28.57990891819948</v>
       </c>
       <c r="C20">
-        <v>28.12265543882022</v>
+        <v>28.22311702043622</v>
       </c>
       <c r="D20">
-        <v>27.53387855582004</v>
+        <v>31.15019636100671</v>
       </c>
       <c r="E20">
-        <v>28.03184050736873</v>
+        <v>28.53127770835658</v>
       </c>
       <c r="F20">
-        <v>27.69579572833105</v>
+        <v>30.08809760737129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.03024271378105</v>
+        <v>29.32787485569106</v>
       </c>
       <c r="C21">
-        <v>28.85051375917599</v>
+        <v>28.95773326863673</v>
       </c>
       <c r="D21">
-        <v>28.23244655204903</v>
+        <v>32.14180027048717</v>
       </c>
       <c r="E21">
-        <v>28.74891099695778</v>
+        <v>29.30197299554639</v>
       </c>
       <c r="F21">
-        <v>28.4129292289482</v>
+        <v>30.941313954387</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.9016376069699</v>
+        <v>30.10786377612875</v>
       </c>
       <c r="C22">
-        <v>29.61088950767625</v>
+        <v>29.72454416822858</v>
       </c>
       <c r="D22">
-        <v>28.96386176813404</v>
+        <v>33.17485633075514</v>
       </c>
       <c r="E22">
-        <v>29.49869959211392</v>
+        <v>30.10730481801522</v>
       </c>
       <c r="F22">
-        <v>29.1640593434383</v>
+        <v>31.82801672260033</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.80540665245341</v>
+        <v>30.91970959109083</v>
       </c>
       <c r="C23">
-        <v>30.40363046838812</v>
+        <v>30.52334699728423</v>
       </c>
       <c r="D23">
-        <v>29.72800331625774</v>
+        <v>34.24881730837074</v>
       </c>
       <c r="E23">
-        <v>30.28114865061866</v>
+        <v>30.94710073184915</v>
       </c>
       <c r="F23">
-        <v>29.94906936582504</v>
+        <v>32.74782032508887</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.74136929181406</v>
+        <v>31.76324502887895</v>
       </c>
       <c r="C24">
-        <v>31.22858625126918</v>
+        <v>31.35394305234801</v>
       </c>
       <c r="D24">
-        <v>30.5247527003017</v>
+        <v>35.36307682263984</v>
       </c>
       <c r="E24">
-        <v>31.09619911095323</v>
+        <v>31.82118170465591</v>
       </c>
       <c r="F24">
-        <v>30.76784294381368</v>
+        <v>33.70032373512794</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.70934118294736</v>
+        <v>32.63830052545894</v>
       </c>
       <c r="C25">
-        <v>32.08560788011341</v>
+        <v>32.21613711296249</v>
       </c>
       <c r="D25">
-        <v>31.35399333882265</v>
+        <v>36.51695878047697</v>
       </c>
       <c r="E25">
-        <v>31.9437902396814</v>
+        <v>32.7293600918298</v>
       </c>
       <c r="F25">
-        <v>31.62026362189152</v>
+        <v>34.68510774537155</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>35.70913226497476</v>
+        <v>33.54470298612608</v>
       </c>
       <c r="C26">
-        <v>32.97454732843472</v>
+        <v>33.10973682320346</v>
       </c>
       <c r="D26">
-        <v>32.21560993576481</v>
+        <v>37.70970523462352</v>
       </c>
       <c r="E26">
-        <v>32.82385910863611</v>
+        <v>33.67143744399446</v>
       </c>
       <c r="F26">
-        <v>32.5062143397482</v>
+        <v>35.70173184252871</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>36.74054447003505</v>
+        <v>34.48227442298554</v>
       </c>
       <c r="C27">
-        <v>33.89525700190738</v>
+        <v>34.0345520479855</v>
       </c>
       <c r="D27">
-        <v>33.10948790960286</v>
+        <v>38.94046245268036</v>
       </c>
       <c r="E27">
-        <v>33.73634019522811</v>
+        <v>34.64720184410272</v>
       </c>
       <c r="F27">
-        <v>33.42557687601689</v>
+        <v>36.74973063098157</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>37.80336898775541</v>
+        <v>35.4508303418777</v>
       </c>
       <c r="C28">
-        <v>34.84758915162687</v>
+        <v>34.99039417038956</v>
       </c>
       <c r="D28">
-        <v>34.03551270722954</v>
+        <v>40.20826497254847</v>
       </c>
       <c r="E28">
-        <v>34.68116489117112</v>
+        <v>35.65642492185753</v>
       </c>
       <c r="F28">
-        <v>34.37823121562214</v>
+        <v>37.82860972691267</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38.89738296785929</v>
+        <v>36.45017801361035</v>
       </c>
       <c r="C29">
-        <v>35.83139518069631</v>
+        <v>35.97707530039535</v>
       </c>
       <c r="D29">
-        <v>34.99356895631569</v>
+        <v>41.51201741654963</v>
       </c>
       <c r="E29">
-        <v>35.65826070748761</v>
+        <v>36.69885840361175</v>
       </c>
       <c r="F29">
-        <v>35.36405479266661</v>
+        <v>38.93784103030309</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>40.02234551870423</v>
+        <v>37.48011441024261</v>
       </c>
       <c r="C30">
-        <v>36.84652487541788</v>
+        <v>36.99440740739573</v>
       </c>
       <c r="D30">
-        <v>35.98353967512556</v>
+        <v>42.85047384492599</v>
       </c>
       <c r="E30">
-        <v>36.66755075111132</v>
+        <v>37.77423001115966</v>
       </c>
       <c r="F30">
-        <v>36.38292165423216</v>
+        <v>40.07685779643992</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>41.17799283295179</v>
+        <v>38.54042382629082</v>
       </c>
       <c r="C31">
-        <v>37.89282543507969</v>
+        <v>38.04220126143616</v>
       </c>
       <c r="D31">
-        <v>37.00530513355928</v>
+        <v>44.22221445471461</v>
       </c>
       <c r="E31">
-        <v>37.70895267620327</v>
+        <v>38.88223896657716</v>
       </c>
       <c r="F31">
-        <v>37.43470142435397</v>
+        <v>41.24504755790937</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>42.36403225362793</v>
+        <v>39.6308751949129</v>
       </c>
       <c r="C32">
-        <v>38.97014031489444</v>
+        <v>39.12026522282924</v>
       </c>
       <c r="D32">
-        <v>38.05874141052455</v>
+        <v>45.62561947944564</v>
       </c>
       <c r="E32">
-        <v>38.78237748011947</v>
+        <v>40.0225501730001</v>
       </c>
       <c r="F32">
-        <v>38.51925819502209</v>
+        <v>42.44174392993042</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>43.58013494824426</v>
+        <v>40.75121871549694</v>
       </c>
       <c r="C33">
-        <v>40.07830783309502</v>
+        <v>40.22840376574141</v>
       </c>
       <c r="D33">
-        <v>39.14371918232742</v>
+        <v>47.05884018493485</v>
       </c>
       <c r="E33">
-        <v>39.88772870854567</v>
+        <v>41.1947877202138</v>
       </c>
       <c r="F33">
-        <v>39.63644900473301</v>
+        <v>43.66621951751139</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>44.82592691803217</v>
+        <v>41.90118194678147</v>
       </c>
       <c r="C34">
-        <v>41.21715942317317</v>
+        <v>41.36641569508822</v>
       </c>
       <c r="D34">
-        <v>40.26010150370536</v>
+        <v>48.51976725017632</v>
       </c>
       <c r="E34">
-        <v>41.0249002263153</v>
+        <v>42.39852707801566</v>
       </c>
       <c r="F34">
-        <v>40.78612214952734</v>
+        <v>44.91767745895488</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>46.10097792927201</v>
+        <v>43.08046511364165</v>
       </c>
       <c r="C35">
-        <v>42.38651760364647</v>
+        <v>42.53409202132428</v>
       </c>
       <c r="D35">
-        <v>41.40774123750545</v>
+        <v>50.00599635949686</v>
       </c>
       <c r="E35">
-        <v>42.19377505579935</v>
+        <v>43.63328576402834</v>
       </c>
       <c r="F35">
-        <v>41.96811504692622</v>
+        <v>46.19523674828777</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>47.40478787480213</v>
+        <v>44.28873537621665</v>
       </c>
       <c r="C36">
-        <v>43.58619324363112</v>
+        <v>43.73121329588292</v>
       </c>
       <c r="D36">
-        <v>42.5864788817157</v>
+        <v>51.51479187479437</v>
       </c>
       <c r="E36">
-        <v>43.39422220002295</v>
+        <v>44.89851276841618</v>
       </c>
       <c r="F36">
-        <v>43.18225179595972</v>
+        <v>47.49791893042973</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>48.7367699624027</v>
+        <v>45.52562004818978</v>
       </c>
       <c r="C37">
-        <v>44.8159822189829</v>
+        <v>44.95754624121614</v>
       </c>
       <c r="D37">
-        <v>43.79613804937396</v>
+        <v>53.04304936652966</v>
       </c>
       <c r="E37">
-        <v>44.62609402747541</v>
+        <v>46.19357479087881</v>
       </c>
       <c r="F37">
-        <v>44.42833991383264</v>
+        <v>48.82463408277837</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>50.09623000572066</v>
+        <v>46.79069815029219</v>
       </c>
       <c r="C38">
-        <v>46.07566118087603</v>
+        <v>46.21283957632559</v>
       </c>
       <c r="D38">
-        <v>45.03652045439948</v>
+        <v>54.58725825916431</v>
       </c>
       <c r="E38">
-        <v>45.88922273558303</v>
+        <v>47.51774071862736</v>
       </c>
       <c r="F38">
-        <v>45.70616634389004</v>
+        <v>50.17416177846636</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>51.48234095626807</v>
+        <v>48.08348984240746</v>
       </c>
       <c r="C39">
-        <v>47.36498200503397</v>
+        <v>47.49681868642602</v>
       </c>
       <c r="D39">
-        <v>46.30740243155582</v>
+        <v>56.14346646787873</v>
       </c>
       <c r="E39">
-        <v>47.18341574677661</v>
+        <v>48.87016262381393</v>
       </c>
       <c r="F39">
-        <v>47.01549245012374</v>
+        <v>51.54512893156949</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>52.89411166448702</v>
+        <v>49.40344356927244</v>
       </c>
       <c r="C40">
-        <v>48.68366519096025</v>
+        <v>48.80917864323101</v>
       </c>
       <c r="D40">
-        <v>47.60852372197342</v>
+        <v>57.70724952556259</v>
       </c>
       <c r="E40">
-        <v>48.50844984406956</v>
+        <v>50.24985491164146</v>
       </c>
       <c r="F40">
-        <v>48.35604776556234</v>
+        <v>52.93598434816668</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>54.33034870636401</v>
+        <v>50.74991988511785</v>
       </c>
       <c r="C41">
-        <v>50.03139046602164</v>
+        <v>50.14957583531508</v>
       </c>
       <c r="D41">
-        <v>48.9395790284112</v>
+        <v>59.27368677561979</v>
       </c>
       <c r="E41">
-        <v>49.86406359006217</v>
+        <v>51.65566372501814</v>
       </c>
       <c r="F41">
-        <v>49.72752275760623</v>
+        <v>54.34496960762107</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>55.78960998214633</v>
+        <v>52.12217242929511</v>
       </c>
       <c r="C42">
-        <v>51.40778527955921</v>
+        <v>51.5176160005819</v>
       </c>
       <c r="D42">
-        <v>50.30020543709239</v>
+        <v>60.83734995163327</v>
       </c>
       <c r="E42">
-        <v>51.24994788950119</v>
+        <v>53.08623628606183</v>
       </c>
       <c r="F42">
-        <v>51.12955678775283</v>
+        <v>55.77008469690274</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>57.27014872085954</v>
+        <v>53.51931959717546</v>
       </c>
       <c r="C43">
-        <v>52.81240921331652</v>
+        <v>52.91283965930239</v>
       </c>
       <c r="D43">
-        <v>51.68996598375048</v>
+        <v>62.39231020089579</v>
       </c>
       <c r="E43">
-        <v>52.6657339481158</v>
+        <v>54.53998271285435</v>
       </c>
       <c r="F43">
-        <v>52.56172505555683</v>
+        <v>57.20904827552482</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>58.76984659689733</v>
+        <v>54.94031319155524</v>
       </c>
       <c r="C44">
-        <v>54.24473192872159</v>
+        <v>54.33470182654401</v>
       </c>
       <c r="D44">
-        <v>53.10832779830061</v>
+        <v>63.93216203261675</v>
       </c>
       <c r="E44">
-        <v>54.11097547705148</v>
+        <v>56.01502950323188</v>
       </c>
       <c r="F44">
-        <v>54.02352116756636</v>
+        <v>58.65925233681024</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>60.28613645214939</v>
+        <v>56.38389758087119</v>
       </c>
       <c r="C45">
-        <v>55.70410645671397</v>
+        <v>55.78254386311166</v>
       </c>
       <c r="D45">
-        <v>54.55463342082493</v>
+        <v>65.45007448616164</v>
       </c>
       <c r="E45">
-        <v>55.5851270513078</v>
+        <v>57.50916391585996</v>
       </c>
       <c r="F45">
-        <v>55.51433331380172</v>
+        <v>60.11771061256415</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>61.81590637834938</v>
+        <v>57.84855593453233</v>
       </c>
       <c r="C46">
-        <v>57.18973209792557</v>
+        <v>57.25555870376434</v>
       </c>
       <c r="D46">
-        <v>56.02806323373935</v>
+        <v>66.93887490168959</v>
       </c>
       <c r="E46">
-        <v>57.08751514041059</v>
+        <v>59.01976889920066</v>
       </c>
       <c r="F46">
-        <v>57.03341180475397</v>
+        <v>61.58100098143957</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>63.35539903746028</v>
+        <v>59.33244105507867</v>
       </c>
       <c r="C47">
-        <v>58.70060308574327</v>
+        <v>58.75274226928413</v>
       </c>
       <c r="D47">
-        <v>57.5275882776388</v>
+        <v>68.39116536436077</v>
       </c>
       <c r="E47">
-        <v>58.61729756455634</v>
+        <v>60.54374722100812</v>
       </c>
       <c r="F47">
-        <v>58.57982545319447</v>
+        <v>63.04520231159007</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>64.90009968784661</v>
+        <v>60.83328719510876</v>
       </c>
       <c r="C48">
-        <v>60.23543865169874</v>
+        <v>60.27282620093611</v>
       </c>
       <c r="D48">
-        <v>59.05189991927564</v>
+        <v>69.79947330820751</v>
       </c>
       <c r="E48">
-        <v>60.17340742864823</v>
+        <v>62.07743367469276</v>
       </c>
       <c r="F48">
-        <v>60.15240177345603</v>
+        <v>64.50582775693543</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>66.44461745047255</v>
+        <v>62.34829904477967</v>
       </c>
       <c r="C49">
-        <v>61.79258945764604</v>
+        <v>61.81418591713518</v>
       </c>
       <c r="D49">
-        <v>60.59932633514575</v>
+        <v>71.15643203066335</v>
       </c>
       <c r="E49">
-        <v>61.75447527334793</v>
+        <v>63.61649553114821</v>
       </c>
       <c r="F49">
-        <v>61.74964465384905</v>
+        <v>65.95775696277173</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>67.98257147652896</v>
+        <v>63.87400465002211</v>
       </c>
       <c r="C50">
-        <v>63.3699010914041</v>
+        <v>63.37471845646058</v>
       </c>
       <c r="D50">
-        <v>62.16771943145218</v>
+        <v>72.45498865710684</v>
       </c>
       <c r="E50">
-        <v>63.35871925809022</v>
+        <v>65.15582310739747</v>
       </c>
       <c r="F50">
-        <v>63.36961281081369</v>
+        <v>67.39517268886726</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>69.50649736014107</v>
+        <v>65.40608007655801</v>
       </c>
       <c r="C51">
-        <v>64.96453537349871</v>
+        <v>64.95166324676019</v>
       </c>
       <c r="D51">
-        <v>63.75430417597494</v>
+        <v>73.68862484901037</v>
       </c>
       <c r="E51">
-        <v>64.98379123400109</v>
+        <v>66.68941472008665</v>
       </c>
       <c r="F51">
-        <v>65.00975749404725</v>
+        <v>68.81150959360667</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>71.00779259278875</v>
+        <v>66.93913716237523</v>
       </c>
       <c r="C52">
-        <v>66.57272488960034</v>
+        <v>66.54137402192683</v>
       </c>
       <c r="D52">
-        <v>65.35548376976047</v>
+        <v>74.85157669116458</v>
       </c>
       <c r="E52">
-        <v>66.62654542018906</v>
+        <v>68.21026430116869</v>
       </c>
       <c r="F52">
-        <v>66.66668939418986</v>
+        <v>70.1994266624674</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>72.47672449219519</v>
+        <v>68.46647663925336</v>
       </c>
       <c r="C53">
-        <v>68.18943679478701</v>
+        <v>68.13900545819327</v>
       </c>
       <c r="D53">
-        <v>66.96659026455545</v>
+        <v>75.93903750790284</v>
       </c>
       <c r="E53">
-        <v>68.28272226383854</v>
+        <v>69.7102642757129</v>
       </c>
       <c r="F53">
-        <v>68.33584550910348</v>
+        <v>71.55081640334799</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>73.90254418041363</v>
+        <v>69.97983155361203</v>
       </c>
       <c r="C54">
-        <v>69.80793783592566</v>
+        <v>69.73810344982198</v>
       </c>
       <c r="D54">
-        <v>68.58157345263287</v>
+        <v>76.94732564458833</v>
       </c>
       <c r="E54">
-        <v>69.94649410353057</v>
+        <v>71.180144869917</v>
       </c>
       <c r="F54">
-        <v>70.01103067444379</v>
+        <v>72.85687476646514</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>75.27372588145357</v>
+        <v>71.46914015883728</v>
       </c>
       <c r="C55">
-        <v>71.41924760325233</v>
+        <v>71.3300966434718</v>
       </c>
       <c r="D55">
-        <v>70.19262902108875</v>
+        <v>77.87400122898345</v>
       </c>
       <c r="E55">
-        <v>71.60983442078978</v>
+        <v>72.60949100925033</v>
       </c>
       <c r="F55">
-        <v>71.68378890059196</v>
+        <v>74.10825377180973</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>76.57835185285006</v>
+        <v>72.92241389283008</v>
       </c>
       <c r="C56">
-        <v>73.01151250461746</v>
+        <v>72.90371408502838</v>
       </c>
       <c r="D56">
-        <v>71.78977872250167</v>
+        <v>78.71792165742576</v>
       </c>
       <c r="E56">
-        <v>73.26169088779423</v>
+        <v>73.98685345909969</v>
       </c>
       <c r="F56">
-        <v>73.34261846862078</v>
+        <v>75.2953033012646</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>77.80466407309106</v>
+        <v>74.32580267826825</v>
       </c>
       <c r="C57">
-        <v>74.56938664263775</v>
+        <v>74.44440696100344</v>
       </c>
       <c r="D57">
-        <v>73.36045402696584</v>
+        <v>79.47923324658368</v>
       </c>
       <c r="E57">
-        <v>74.88701940318687</v>
+        <v>75.30001871999258</v>
       </c>
       <c r="F57">
-        <v>74.97206231668234</v>
+        <v>76.40843279492492</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>78.94173967871798</v>
+        <v>75.66398111471541</v>
       </c>
       <c r="C58">
-        <v>76.07362490740196</v>
+        <v>75.93395169098136</v>
       </c>
       <c r="D58">
-        <v>74.88917490622383</v>
+        <v>80.15929662237585</v>
       </c>
       <c r="E58">
-        <v>76.46585677707611</v>
+        <v>76.53646438838345</v>
       </c>
       <c r="F58">
-        <v>76.5518971255525</v>
+        <v>77.43858490681376</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>79.98023058209756</v>
+        <v>76.92090962954221</v>
       </c>
       <c r="C59">
-        <v>77.50124410165847</v>
+        <v>77.35056090763949</v>
       </c>
       <c r="D59">
-        <v>76.35750601661893</v>
+        <v>80.76055873644624</v>
       </c>
       <c r="E59">
-        <v>77.97289823914588</v>
+        <v>77.68402411653319</v>
       </c>
       <c r="F59">
-        <v>78.05684111916457</v>
+        <v>78.37778965345923</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>80.91306911570244</v>
+        <v>78.08101411141226</v>
       </c>
       <c r="C60">
-        <v>78.82663450476514</v>
+        <v>78.66983853396829</v>
       </c>
       <c r="D60">
-        <v>77.74448197681502</v>
+        <v>81.28638498156012</v>
       </c>
       <c r="E60">
-        <v>79.37828650875264</v>
+        <v>78.7317207590859</v>
       </c>
       <c r="F60">
-        <v>79.45747107587827</v>
+        <v>79.21975178758663</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>81.736021231216</v>
+        <v>79.13063913093235</v>
       </c>
       <c r="C61">
-        <v>80.02398312521711</v>
+        <v>79.86692641486583</v>
       </c>
       <c r="D61">
-        <v>79.02777970171886</v>
+        <v>81.7408664360587</v>
       </c>
       <c r="E61">
-        <v>80.65037098762629</v>
+        <v>79.67069440274716</v>
       </c>
       <c r="F61">
-        <v>80.7229550902175</v>
+        <v>79.96038537810735</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>82.44798663785912</v>
+        <v>80.05951693469703</v>
       </c>
       <c r="C62">
-        <v>81.07086223579708</v>
+        <v>80.9197670674306</v>
       </c>
       <c r="D62">
-        <v>80.18573702503454</v>
+        <v>82.12861819641775</v>
       </c>
       <c r="E62">
-        <v>81.76050305770153</v>
+        <v>80.49506416411252</v>
       </c>
       <c r="F62">
-        <v>81.82570906729198</v>
+        <v>80.5982038598242</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>83.05098864778803</v>
+        <v>80.86191478774194</v>
       </c>
       <c r="C63">
-        <v>81.95216123061797</v>
+        <v>81.81279559653123</v>
       </c>
       <c r="D63">
-        <v>81.2000505135918</v>
+        <v>82.4545853230395</v>
       </c>
       <c r="E63">
-        <v>82.68877745459076</v>
+        <v>81.20255095146869</v>
       </c>
       <c r="F63">
-        <v>82.74685046090771</v>
+        <v>81.13448154312339</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>83.5498595749652</v>
+        <v>81.53716849769263</v>
       </c>
       <c r="C64">
-        <v>82.66297089250864</v>
+        <v>82.53984052968936</v>
       </c>
       <c r="D64">
-        <v>82.05859655768721</v>
+        <v>82.72386594749183</v>
       </c>
       <c r="E64">
-        <v>83.42841284757024</v>
+        <v>81.79468810845098</v>
       </c>
       <c r="F64">
-        <v>83.48032216542207</v>
+        <v>81.57314240052359</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>83.95168779898678</v>
+        <v>82.08948175659053</v>
       </c>
       <c r="C65">
-        <v>83.20921281620998</v>
+        <v>83.10505865519585</v>
       </c>
       <c r="D65">
-        <v>82.75749316237155</v>
+        <v>82.94155932160979</v>
       </c>
       <c r="E65">
-        <v>83.98671722597277</v>
+        <v>82.27659909199917</v>
       </c>
       <c r="F65">
-        <v>84.03374661800321</v>
+        <v>81.92039235663384</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>84.26513216257001</v>
+        <v>82.52708432213392</v>
       </c>
       <c r="C66">
-        <v>83.6058237187338</v>
+        <v>83.5215495420825</v>
       </c>
       <c r="D66">
-        <v>83.30163939300691</v>
+        <v>83.11264306126142</v>
       </c>
       <c r="E66">
-        <v>84.38231763891126</v>
+        <v>82.65634401176175</v>
       </c>
       <c r="F66">
-        <v>84.42572168554842</v>
+        <v>82.18415304482288</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>84.49971712766968</v>
+        <v>82.86100427741712</v>
       </c>
       <c r="C67">
-        <v>83.8733373685895</v>
+        <v>83.80832273183418</v>
       </c>
       <c r="D67">
-        <v>83.70351888212879</v>
+        <v>83.24188003266379</v>
       </c>
       <c r="E67">
-        <v>84.64024604680714</v>
+        <v>82.9440143571037</v>
       </c>
       <c r="F67">
-        <v>84.68106132850653</v>
+        <v>82.37340598624617</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>84.66519913920919</v>
+        <v>83.10375524156616</v>
       </c>
       <c r="C68">
-        <v>84.03423753701151</v>
+        <v>83.98683819029991</v>
       </c>
       <c r="D68">
-        <v>83.98074073754667</v>
+        <v>83.33375125707889</v>
       </c>
       <c r="E68">
-        <v>84.78704991539333</v>
+        <v>83.15075602562284</v>
       </c>
       <c r="F68">
-        <v>84.82604666285664</v>
+        <v>82.49754546254152</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>84.77106092752668</v>
+        <v>83.26818019473063</v>
       </c>
       <c r="C69">
-        <v>84.11010237544963</v>
+        <v>84.0781498287986</v>
       </c>
       <c r="D69">
-        <v>84.15319077059742</v>
+        <v>83.39241462649242</v>
       </c>
       <c r="E69">
-        <v>84.84732509153311</v>
+        <v>83.28789015929553</v>
       </c>
       <c r="F69">
-        <v>84.88503978075258</v>
+        <v>82.56582515256541</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>84.82615516342079</v>
+        <v>83.36658461263549</v>
       </c>
       <c r="C70">
-        <v>84.11991409916992</v>
+        <v>84.10110148229187</v>
       </c>
       <c r="D70">
-        <v>84.24057820274324</v>
+        <v>83.42168320366412</v>
       </c>
       <c r="E70">
-        <v>84.84195817675557</v>
+        <v>83.36623537280951</v>
       </c>
       <c r="F70">
-        <v>84.87875245483113</v>
+        <v>82.58694365669055</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>84.83848907827394</v>
+        <v>83.41018586372283</v>
       </c>
       <c r="C71">
-        <v>84.07939852992624</v>
+        <v>84.07152702120976</v>
       </c>
       <c r="D71">
-        <v>84.26078793429986</v>
+        <v>83.42501971256348</v>
       </c>
       <c r="E71">
-        <v>84.78768337192361</v>
+        <v>83.39566339585666</v>
       </c>
       <c r="F71">
-        <v>84.82379911522425</v>
+        <v>82.56877751872157</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>84.81512599205847</v>
+        <v>83.40883759125933</v>
       </c>
       <c r="C72">
-        <v>84.00105113878055</v>
+        <v>84.00215757371149</v>
       </c>
       <c r="D72">
-        <v>84.22906103972991</v>
+        <v>83.40554229056039</v>
       </c>
       <c r="E72">
-        <v>84.69739607505015</v>
+        <v>83.38486818875863</v>
       </c>
       <c r="F72">
-        <v>84.73299664633861</v>
+        <v>82.51825088306666</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>84.76217409742949</v>
+        <v>83.37095829913829</v>
       </c>
       <c r="C73">
-        <v>83.89451897084109</v>
+        <v>83.90292107851218</v>
       </c>
       <c r="D73">
-        <v>84.15781051179276</v>
+        <v>83.36603982241095</v>
       </c>
       <c r="E73">
-        <v>84.58078109902031</v>
+        <v>83.34130032733937</v>
       </c>
       <c r="F73">
-        <v>84.61597969023924</v>
+        <v>82.44130611747174</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>84.68483318972251</v>
+        <v>83.30359189611255</v>
       </c>
       <c r="C74">
-        <v>83.76710518276732</v>
+        <v>83.78140009339609</v>
       </c>
       <c r="D74">
-        <v>84.05682087289198</v>
+        <v>83.30899229480202</v>
       </c>
       <c r="E74">
-        <v>84.44499350974564</v>
+        <v>83.27121308812245</v>
       </c>
       <c r="F74">
-        <v>84.47987084788771</v>
+        <v>82.34294734365497</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>84.58747557548591</v>
+        <v>83.21254135468527</v>
       </c>
       <c r="C75">
-        <v>83.62426965128428</v>
+        <v>83.64330630350877</v>
       </c>
       <c r="D75">
-        <v>83.93362786051472</v>
+        <v>83.2365945217166</v>
       </c>
       <c r="E75">
-        <v>84.29526848458804</v>
+        <v>83.17977265653579</v>
       </c>
       <c r="F75">
-        <v>84.32988373024338</v>
+        <v>82.22732635608935</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>84.47374244056843</v>
+        <v>83.10253283779687</v>
       </c>
       <c r="C76">
-        <v>83.47006218184293</v>
+        <v>83.49290756532457</v>
       </c>
       <c r="D76">
-        <v>83.79394155210163</v>
+        <v>83.15078128282244</v>
       </c>
       <c r="E76">
-        <v>84.13541462604515</v>
+        <v>83.07119726231507</v>
       </c>
       <c r="F76">
-        <v>84.16981282839099</v>
+        <v>82.09784776630363</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>84.34664368163595</v>
+        <v>82.97738355053423</v>
       </c>
       <c r="C77">
-        <v>83.30747263649903</v>
+        <v>83.33337563343504</v>
       </c>
       <c r="D77">
-        <v>83.64204238529091</v>
+        <v>83.05325280430552</v>
       </c>
       <c r="E77">
-        <v>83.96819658249512</v>
+        <v>82.94890141593113</v>
       </c>
       <c r="F77">
-        <v>84.00241249934507</v>
+        <v>81.95727897439743</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>84.20865348956112</v>
+        <v>82.84015877715809</v>
       </c>
       <c r="C78">
-        <v>83.13870463388972</v>
+        <v>83.16706302370444</v>
       </c>
       <c r="D78">
-        <v>83.48111662907579</v>
+        <v>82.94549938268845</v>
       </c>
       <c r="E78">
-        <v>83.79562112719182</v>
+        <v>82.81563279552583</v>
       </c>
       <c r="F78">
-        <v>83.82968204683911</v>
+        <v>81.80785448767666</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>84.06179776025824</v>
+        <v>82.69331096032953</v>
       </c>
       <c r="C79">
-        <v>82.96538199204336</v>
+        <v>82.99571294693193</v>
       </c>
       <c r="D79">
-        <v>83.31352637207351</v>
+        <v>82.82882469917188</v>
       </c>
       <c r="E79">
-        <v>83.61914686143732</v>
+        <v>82.67359412040832</v>
       </c>
       <c r="F79">
-        <v>83.65307463700961</v>
+        <v>81.65136999066992</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>83.90773048240213</v>
+        <v>82.53879693394758</v>
       </c>
       <c r="C80">
-        <v>82.78870268405743</v>
+        <v>82.82062019677521</v>
       </c>
       <c r="D80">
-        <v>83.14101879373636</v>
+        <v>82.70436750102354</v>
       </c>
       <c r="E80">
-        <v>83.43983663812354</v>
+        <v>82.52454627817434</v>
       </c>
       <c r="F80">
-        <v>83.47364885606461</v>
+        <v>81.48926371901507</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>83.74779926027463</v>
+        <v>82.37817566816697</v>
       </c>
       <c r="C81">
-        <v>82.60955243163866</v>
+        <v>82.6427471217218</v>
       </c>
       <c r="D81">
-        <v>82.96488641208744</v>
+        <v>82.57312135311814</v>
       </c>
       <c r="E81">
-        <v>83.2584673579744</v>
+        <v>82.36989536930255</v>
       </c>
       <c r="F81">
-        <v>83.29217826624554</v>
+        <v>81.32268518300776</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>83.58310090900812</v>
+        <v>82.21268933773668</v>
       </c>
       <c r="C82">
-        <v>82.42858785977295</v>
+        <v>82.46281174239685</v>
       </c>
       <c r="D82">
-        <v>82.78608596294703</v>
+        <v>82.43595248652089</v>
       </c>
       <c r="E82">
-        <v>83.07560896396184</v>
+        <v>82.21076410071447</v>
       </c>
       <c r="F82">
-        <v>83.10923017660716</v>
+        <v>81.15255218130825</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>83.41452775164197</v>
+        <v>82.04332766766781</v>
       </c>
       <c r="C83">
-        <v>82.2462973190688</v>
+        <v>82.28135117449359</v>
       </c>
       <c r="D83">
-        <v>82.60532682031376</v>
+        <v>82.29361579583414</v>
       </c>
       <c r="E83">
-        <v>82.89168113281796</v>
+        <v>82.04804908139489</v>
       </c>
       <c r="F83">
-        <v>82.92522226950544</v>
+        <v>80.97959716940825</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>83.24280596745376</v>
+        <v>81.87087973189365</v>
       </c>
       <c r="C84">
-        <v>82.06304527161306</v>
+        <v>82.09876880744621</v>
       </c>
       <c r="D84">
-        <v>82.42313641831154</v>
+        <v>82.14676905164201</v>
       </c>
       <c r="E84">
-        <v>82.70699402327573</v>
+        <v>81.88246750117224</v>
       </c>
       <c r="F84">
-        <v>82.74046329206298</v>
+        <v>80.80440487836</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83.06852685285347</v>
+        <v>81.69597573642334</v>
       </c>
       <c r="C85">
-        <v>81.8791044693257</v>
+        <v>81.91536869302713</v>
       </c>
       <c r="D85">
-        <v>82.23990784263323</v>
+        <v>81.99598540245897</v>
       </c>
       <c r="E85">
-        <v>82.52177840820305</v>
+        <v>81.71459370852983</v>
       </c>
       <c r="F85">
-        <v>82.55518239904295</v>
+        <v>80.62744251346598</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>82.89217225775025</v>
+        <v>81.51911958454497</v>
       </c>
       <c r="C86">
-        <v>81.69468015813071</v>
+        <v>81.73138088366576</v>
       </c>
       <c r="D86">
-        <v>82.05593504287083</v>
+        <v>81.84176437054063</v>
       </c>
       <c r="E86">
-        <v>82.33620663246658</v>
+        <v>81.54488852477535</v>
       </c>
       <c r="F86">
-        <v>82.36955018283282</v>
+        <v>80.44908375023158</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>82.71413537270423</v>
+        <v>81.34071487835941</v>
       </c>
       <c r="C87">
-        <v>81.50992777055596</v>
+        <v>81.54698021335153</v>
       </c>
       <c r="D87">
-        <v>81.87143863754254</v>
+        <v>81.6845415159367</v>
       </c>
       <c r="E87">
-        <v>82.15040742134191</v>
+        <v>81.37372266888218</v>
       </c>
       <c r="F87">
-        <v>82.18369444998567</v>
+        <v>80.26962777388366</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>82.53473750549115</v>
+        <v>81.16108567013673</v>
       </c>
       <c r="C88">
-        <v>81.32496488296611</v>
+        <v>81.36229999519423</v>
       </c>
       <c r="D88">
-        <v>81.68658471076074</v>
+        <v>81.52469683332269</v>
       </c>
       <c r="E88">
-        <v>81.9644773989923</v>
+        <v>81.20139494472205</v>
       </c>
       <c r="F88">
-        <v>81.99771168258752</v>
+        <v>80.08931465297037</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>82.35424166288534</v>
+        <v>80.98049257211628</v>
       </c>
       <c r="C89">
-        <v>81.13988059468122</v>
+        <v>81.17744236709871</v>
       </c>
       <c r="D89">
-        <v>81.50149867091098</v>
+        <v>81.36256205849315</v>
       </c>
       <c r="E89">
-        <v>81.77848969110329</v>
+        <v>81.02814681874035</v>
       </c>
       <c r="F89">
-        <v>81.81167459872688</v>
+        <v>79.90833776399116</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>82.17286357603015</v>
+        <v>80.79914563673869</v>
       </c>
       <c r="C90">
-        <v>80.95474302890877</v>
+        <v>80.99248578494256</v>
       </c>
       <c r="D90">
-        <v>81.31627558736362</v>
+        <v>81.19842687872384</v>
       </c>
       <c r="E90">
-        <v>81.59249984210567</v>
+        <v>80.85417400701203</v>
       </c>
       <c r="F90">
-        <v>81.62563799571157</v>
+        <v>79.7268529364805</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>81.99078049462382</v>
+        <v>80.61721461834043</v>
       </c>
       <c r="C91">
-        <v>80.76960453423106</v>
+        <v>80.80749072903708</v>
       </c>
       <c r="D91">
-        <v>81.1309882047221</v>
+        <v>81.03254467611052</v>
       </c>
       <c r="E91">
-        <v>81.40655003641993</v>
+        <v>80.67963550470255</v>
       </c>
       <c r="F91">
-        <v>81.43964353493742</v>
+        <v>79.54498572749648</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>81.80813836907582</v>
+        <v>80.43483696018946</v>
       </c>
       <c r="C92">
-        <v>80.58450537083596</v>
+        <v>80.62250416945069</v>
       </c>
       <c r="D92">
-        <v>80.94569218040898</v>
+        <v>80.86513741634764</v>
       </c>
       <c r="E92">
-        <v>81.22067233547578</v>
+        <v>80.50466085807328</v>
       </c>
       <c r="F92">
-        <v>81.25372312197409</v>
+        <v>79.36283761081047</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>81.62505763170465</v>
+        <v>80.25212417441145</v>
       </c>
       <c r="C93">
-        <v>80.3994765506658</v>
+        <v>80.43756280076992</v>
       </c>
       <c r="D93">
-        <v>80.76042997361239</v>
+        <v>80.69639960192931</v>
       </c>
       <c r="E93">
-        <v>81.03489139753943</v>
+        <v>80.32935583669138</v>
       </c>
       <c r="F93">
-        <v>81.0679012681049</v>
+        <v>79.18049095680142</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>81.44163786527457</v>
+        <v>80.06916691537923</v>
       </c>
       <c r="C94">
-        <v>80.21454198068851</v>
+        <v>80.2526952511808</v>
       </c>
       <c r="D94">
-        <v>80.57523413073058</v>
+        <v>80.52650178266339</v>
       </c>
       <c r="E94">
-        <v>80.84922640317228</v>
+        <v>80.1538070647369</v>
       </c>
       <c r="F94">
-        <v>80.88219673615231</v>
+        <v>78.9980127896859</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>81.25796162992913</v>
+        <v>79.88603916638566</v>
       </c>
       <c r="C95">
-        <v>80.02972028932361</v>
+        <v>80.06792380700109</v>
       </c>
       <c r="D95">
-        <v>80.39012984961064</v>
+        <v>80.3555936504164</v>
       </c>
       <c r="E95">
-        <v>80.66369218533666</v>
+        <v>79.9780858644155</v>
       </c>
       <c r="F95">
-        <v>80.69662394594403</v>
+        <v>78.81545769090316</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>81.07409745668308</v>
+        <v>79.70280154145298</v>
       </c>
       <c r="C96">
-        <v>79.84502622413618</v>
+        <v>79.88326589938798</v>
       </c>
       <c r="D96">
-        <v>80.2051367334271</v>
+        <v>80.18380672262374</v>
       </c>
       <c r="E96">
-        <v>80.47830021944715</v>
+        <v>79.80225109002382</v>
       </c>
       <c r="F96">
-        <v>80.51119398245433</v>
+        <v>78.63287018543816</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>80.89010237785625</v>
+        <v>79.51950373749406</v>
       </c>
       <c r="C97">
-        <v>79.66047127394758</v>
+        <v>79.69873529263819</v>
       </c>
       <c r="D97">
-        <v>80.02027001079695</v>
+        <v>80.01125680906235</v>
       </c>
       <c r="E97">
-        <v>80.2930593402974</v>
+        <v>79.62635133963339</v>
       </c>
       <c r="F97">
-        <v>80.32591570050674</v>
+        <v>78.45028670631723</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>80.70602400581566</v>
+        <v>79.33618649585696</v>
       </c>
       <c r="C98">
-        <v>79.47606443565107</v>
+        <v>79.51434292269293</v>
       </c>
       <c r="D98">
-        <v>79.83554148440206</v>
+        <v>79.83804598299918</v>
       </c>
       <c r="E98">
-        <v>80.107976333605</v>
+        <v>79.45042677202913</v>
       </c>
       <c r="F98">
-        <v>80.14079594384948</v>
+        <v>78.26773714916668</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>80.52190224213233</v>
+        <v>79.15288317377538</v>
       </c>
       <c r="C99">
-        <v>79.29181281076323</v>
+        <v>79.33009747117251</v>
       </c>
       <c r="D99">
-        <v>79.65096037520644</v>
+        <v>79.66426431665036</v>
       </c>
       <c r="E99">
-        <v>79.92305645925086</v>
+        <v>79.274510661829</v>
       </c>
       <c r="F99">
-        <v>79.95583998362675</v>
+        <v>78.0852460866444</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>80.33777073978425</v>
+        <v>78.96962130252759</v>
       </c>
       <c r="C100">
-        <v>79.10772181386756</v>
+        <v>79.14600581404427</v>
       </c>
       <c r="D100">
-        <v>79.46653384400679</v>
+        <v>79.48999136939238</v>
       </c>
       <c r="E100">
-        <v>79.73830389161239</v>
+        <v>79.09863073650658</v>
       </c>
       <c r="F100">
-        <v>79.77105192063812</v>
+        <v>77.90283367457664</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>80.15365753987182</v>
+        <v>78.78642368383041</v>
       </c>
       <c r="C101">
-        <v>78.92379573394712</v>
+        <v>78.96207336369898</v>
       </c>
       <c r="D101">
-        <v>79.28226771474775</v>
+        <v>79.31529749778818</v>
       </c>
       <c r="E101">
-        <v>79.55372191874697</v>
+        <v>78.92281020361069</v>
       </c>
       <c r="F101">
-        <v>79.58643492521998</v>
+        <v>77.72051660625289</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>79.96958622830823</v>
+        <v>78.60330921961055</v>
       </c>
       <c r="C102">
-        <v>78.74003798178104</v>
+        <v>78.77830448305744</v>
       </c>
       <c r="D102">
-        <v>79.09816652952385</v>
+        <v>79.14024498935915</v>
       </c>
       <c r="E102">
-        <v>79.36931311958193</v>
+        <v>78.74706850051751</v>
       </c>
       <c r="F102">
-        <v>79.40199144433333</v>
+        <v>77.53830872024585</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>79.78557669355419</v>
+        <v>78.42029358331777</v>
       </c>
       <c r="C103">
-        <v>78.55645128505158</v>
+        <v>78.59470258419086</v>
       </c>
       <c r="D103">
-        <v>78.9142338011771</v>
+        <v>78.9648890980192</v>
       </c>
       <c r="E103">
-        <v>79.18507950911449</v>
+        <v>78.57142191471071</v>
       </c>
       <c r="F103">
-        <v>79.21772341598943</v>
+        <v>77.35622142267538</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>79.6016457652557</v>
+        <v>78.23738978321381</v>
       </c>
       <c r="C104">
-        <v>78.37303783854827</v>
+        <v>78.41127054532782</v>
       </c>
       <c r="D104">
-        <v>78.73047235376858</v>
+        <v>78.78927887099846</v>
       </c>
       <c r="E104">
-        <v>79.00102261426687</v>
+        <v>78.39588412539413</v>
       </c>
       <c r="F104">
-        <v>79.0336323535473</v>
+        <v>77.17426436295143</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>79.41780775537858</v>
+        <v>78.05460863813499</v>
       </c>
       <c r="C105">
-        <v>78.18979933142522</v>
+        <v>78.22801061854889</v>
       </c>
       <c r="D105">
-        <v>78.54688432623624</v>
+        <v>78.61345790763261</v>
       </c>
       <c r="E105">
-        <v>78.81714362707412</v>
+        <v>78.22046664592125</v>
       </c>
       <c r="F105">
-        <v>78.84971946776479</v>
+        <v>76.99244541219781</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>79.23407480957513</v>
+        <v>77.87195908689908</v>
       </c>
       <c r="C106">
-        <v>78.00673709016523</v>
+        <v>78.0449245512617</v>
       </c>
       <c r="D106">
-        <v>78.36347140472628</v>
+        <v>78.43746500970136</v>
       </c>
       <c r="E106">
-        <v>78.63344346409002</v>
+        <v>78.04517913655806</v>
       </c>
       <c r="F106">
-        <v>78.66598566356542</v>
+        <v>76.81077109478694</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>79.05045725452125</v>
+        <v>77.68944873588731</v>
       </c>
       <c r="C107">
-        <v>77.82385214780068</v>
+        <v>77.8620138518813</v>
       </c>
       <c r="D107">
-        <v>78.18023491105622</v>
+        <v>78.26133475108864</v>
       </c>
       <c r="E107">
-        <v>78.44992285621092</v>
+        <v>77.8700298874968</v>
       </c>
       <c r="F107">
-        <v>78.48243162822062</v>
+        <v>76.62924685476639</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>78.86696388290791</v>
+        <v>77.50708373614577</v>
       </c>
       <c r="C108">
-        <v>77.64114529787138</v>
+        <v>77.67927958253034</v>
       </c>
       <c r="D108">
-        <v>77.99717592047629</v>
+        <v>78.08509797244935</v>
       </c>
       <c r="E108">
-        <v>78.26658234571174</v>
+        <v>77.69502580636237</v>
       </c>
       <c r="F108">
-        <v>78.29905787918113</v>
+        <v>76.44787723205654</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>78.68360220002087</v>
+        <v>77.32486961059946</v>
       </c>
       <c r="C109">
-        <v>77.45861716701799</v>
+        <v>77.49672262977458</v>
       </c>
       <c r="D109">
-        <v>77.81429525838797</v>
+        <v>77.90878217517105</v>
       </c>
       <c r="E109">
-        <v>78.0834223853534</v>
+        <v>77.52017298397162</v>
       </c>
       <c r="F109">
-        <v>78.11586479138681</v>
+        <v>76.26666602801562</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>78.50037859591684</v>
+        <v>77.14281065708302</v>
       </c>
       <c r="C110">
-        <v>77.27626823103007</v>
+        <v>77.31434367327689</v>
       </c>
       <c r="D110">
-        <v>77.63159355989191</v>
+        <v>77.73241203855274</v>
       </c>
       <c r="E110">
-        <v>77.90044325110314</v>
+        <v>77.34547646760525</v>
       </c>
       <c r="F110">
-        <v>77.93285264797024</v>
+        <v>76.08561641633794</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>78.31729854082218</v>
+        <v>76.96091078449439</v>
       </c>
       <c r="C111">
-        <v>77.09409885849638</v>
+        <v>77.13214324220397</v>
       </c>
       <c r="D111">
-        <v>77.44907131867454</v>
+        <v>77.55600946529988</v>
       </c>
       <c r="E111">
-        <v>77.717645193674</v>
+        <v>77.17094062136576</v>
       </c>
       <c r="F111">
-        <v>77.75002163352792</v>
+        <v>75.90473109150092</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>78.13436675995992</v>
+        <v>76.7791730393821</v>
       </c>
       <c r="C112">
-        <v>76.91210934387196</v>
+        <v>76.95012177347459</v>
       </c>
       <c r="D112">
-        <v>77.2667288851933</v>
+        <v>77.37959447168406</v>
       </c>
       <c r="E112">
-        <v>77.53502832265596</v>
+        <v>76.99656916621802</v>
       </c>
       <c r="F112">
-        <v>77.56737188847949</v>
+        <v>75.72401226924343</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>77.95158728502793</v>
+        <v>76.59760006127708</v>
       </c>
       <c r="C113">
-        <v>76.73029986602042</v>
+        <v>76.76827958143218</v>
       </c>
       <c r="D113">
-        <v>77.08456651761888</v>
+        <v>77.20318461159422</v>
       </c>
       <c r="E113">
-        <v>77.35259272317462</v>
+        <v>76.82236518798332</v>
       </c>
       <c r="F113">
-        <v>77.38490348737861</v>
+        <v>75.54346180252102</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>77.76896368603559</v>
+        <v>76.41619401468638</v>
       </c>
       <c r="C114">
-        <v>76.5486705845957</v>
+        <v>76.58661691145858</v>
       </c>
       <c r="D114">
-        <v>76.90258439558005</v>
+        <v>77.02679610347181</v>
       </c>
       <c r="E114">
-        <v>77.17033841307233</v>
+        <v>76.64833138888926</v>
       </c>
       <c r="F114">
-        <v>77.202616462588</v>
+        <v>75.36308123992522</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>77.58649893292321</v>
+        <v>76.23495670544365</v>
       </c>
       <c r="C115">
-        <v>76.36722154724302</v>
+        <v>76.40513393228929</v>
       </c>
       <c r="D115">
-        <v>76.72078264109091</v>
+        <v>76.85044312850938</v>
       </c>
       <c r="E115">
-        <v>76.98826538159545</v>
+        <v>76.47447002681112</v>
       </c>
       <c r="F115">
-        <v>77.02051081239485</v>
+        <v>75.18287186972782</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>77.40419570190498</v>
+        <v>76.0538896739976</v>
       </c>
       <c r="C116">
-        <v>76.18595279601035</v>
+        <v>76.22383074803946</v>
       </c>
       <c r="D116">
-        <v>76.53916132197364</v>
+        <v>76.67413873501533</v>
       </c>
       <c r="E116">
-        <v>76.80637358662497</v>
+        <v>76.30078307476604</v>
       </c>
       <c r="F116">
-        <v>76.83858648868411</v>
+        <v>75.00283476537648</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>77.22205617580495</v>
+        <v>75.87299418926797</v>
       </c>
       <c r="C117">
-        <v>76.00486430463822</v>
+        <v>76.04270741863816</v>
       </c>
       <c r="D117">
-        <v>76.35772046354454</v>
+        <v>76.49789446291196</v>
       </c>
       <c r="E117">
-        <v>76.62466297295047</v>
+        <v>76.12727221298024</v>
       </c>
       <c r="F117">
-        <v>76.65684342852602</v>
+        <v>74.82297079892535</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>77.04008231150647</v>
+        <v>75.69227136390123</v>
       </c>
       <c r="C118">
-        <v>75.82395603224766</v>
+        <v>75.86176396336255</v>
       </c>
       <c r="D118">
-        <v>76.17646005773646</v>
+        <v>76.32172083494892</v>
       </c>
       <c r="E118">
-        <v>76.4431334549087</v>
+        <v>75.95393891867518</v>
       </c>
       <c r="F118">
-        <v>76.47528153650647</v>
+        <v>74.64328072596038</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>76.85827572760564</v>
+        <v>75.51172208828163</v>
       </c>
       <c r="C119">
-        <v>75.64322791347097</v>
+        <v>75.68100036991697</v>
       </c>
       <c r="D119">
-        <v>75.99538006349712</v>
+        <v>76.1456272971223</v>
       </c>
       <c r="E119">
-        <v>76.2617849437306</v>
+        <v>75.78078444383613</v>
       </c>
       <c r="F119">
-        <v>76.29390070702065</v>
+        <v>74.4637651314563</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>76.67663784712579</v>
+        <v>75.3313471381731</v>
       </c>
       <c r="C120">
-        <v>75.46267986450175</v>
+        <v>75.50041660480321</v>
       </c>
       <c r="D120">
-        <v>75.81448041743612</v>
+        <v>75.96962241858839</v>
       </c>
       <c r="E120">
-        <v>76.08061732362145</v>
+        <v>75.60780987131396</v>
       </c>
       <c r="F120">
-        <v>76.11270082168643</v>
+        <v>74.28442452976989</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>76.49516989056461</v>
+        <v>75.15114712893185</v>
       </c>
       <c r="C121">
-        <v>75.28231179117515</v>
+        <v>75.32001260833832</v>
       </c>
       <c r="D121">
-        <v>75.63376103579284</v>
+        <v>75.79371396736884</v>
       </c>
       <c r="E121">
-        <v>75.89963047480121</v>
+        <v>75.43501612961933</v>
       </c>
       <c r="F121">
-        <v>75.93168175117569</v>
+        <v>74.10525933861911</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>76.31387290876576</v>
+        <v>74.97112257067718</v>
       </c>
       <c r="C122">
-        <v>75.10212358823324</v>
+        <v>75.13978830727932</v>
       </c>
       <c r="D122">
-        <v>75.45322182050215</v>
+        <v>75.61790895799572</v>
       </c>
       <c r="E122">
-        <v>75.71882426151305</v>
+        <v>75.26240399998289</v>
       </c>
       <c r="F122">
-        <v>75.75084336257453</v>
+        <v>73.92626986401585</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>76.1327478276709</v>
+        <v>74.79127387617984</v>
       </c>
       <c r="C123">
-        <v>74.92211513554619</v>
+        <v>74.95974360864676</v>
       </c>
       <c r="D123">
-        <v>75.27286266115102</v>
+        <v>75.44221380125981</v>
       </c>
       <c r="E123">
-        <v>75.53819854278332</v>
+        <v>75.08997415965712</v>
       </c>
       <c r="F123">
-        <v>75.57018551368472</v>
+        <v>73.74745639825025</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>75.95179542909756</v>
+        <v>74.61160137437673</v>
       </c>
       <c r="C124">
-        <v>74.74228630968756</v>
+        <v>74.77987840696576</v>
       </c>
       <c r="D124">
-        <v>75.09268343378035</v>
+        <v>75.26663424886443</v>
       </c>
       <c r="E124">
-        <v>75.35775317044616</v>
+        <v>74.91772717878573</v>
       </c>
       <c r="F124">
-        <v>75.38970805781831</v>
+        <v>73.56881910397342</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>75.77101640330233</v>
+        <v>74.43210533104067</v>
       </c>
       <c r="C125">
-        <v>74.56263697098285</v>
+        <v>74.60019258567428</v>
       </c>
       <c r="D125">
-        <v>74.91268401426809</v>
+        <v>75.09117558867226</v>
       </c>
       <c r="E125">
-        <v>75.17748799162385</v>
+        <v>74.74566354969089</v>
       </c>
       <c r="F125">
-        <v>75.20941084299423</v>
+        <v>73.39035814780182</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>75.5904113246757</v>
+        <v>74.25278594987989</v>
       </c>
       <c r="C126">
-        <v>74.38316697807444</v>
+        <v>74.42068601873274</v>
       </c>
       <c r="D126">
-        <v>74.73286425845804</v>
+        <v>74.91584256708229</v>
       </c>
       <c r="E126">
-        <v>74.99740285117471</v>
+        <v>74.57378368789057</v>
       </c>
       <c r="F126">
-        <v>75.02929371089604</v>
+        <v>73.21207361170518</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>75.40998069146856</v>
+        <v>74.07364339291965</v>
       </c>
       <c r="C127">
-        <v>74.2038761801501</v>
+        <v>74.24135857265917</v>
       </c>
       <c r="D127">
-        <v>74.55322403008149</v>
+        <v>74.74063954058425</v>
       </c>
       <c r="E127">
-        <v>74.81749758835545</v>
+        <v>74.40208795149547</v>
       </c>
       <c r="F127">
-        <v>74.84935650096202</v>
+        <v>73.03396556088616</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>75.22972491681139</v>
+        <v>73.89467777195433</v>
       </c>
       <c r="C128">
-        <v>74.02476442295458</v>
+        <v>74.06221010825496</v>
       </c>
       <c r="D128">
-        <v>74.37376317396567</v>
+        <v>74.56557044533895</v>
       </c>
       <c r="E128">
-        <v>74.63777204274851</v>
+        <v>74.23057663843385</v>
       </c>
       <c r="F128">
-        <v>74.66959904799295</v>
+        <v>72.85603402085088</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>75.04964435128277</v>
+        <v>73.71588916622565</v>
       </c>
       <c r="C129">
-        <v>73.84583154956881</v>
+        <v>73.88324048024045</v>
       </c>
       <c r="D129">
-        <v>74.19448153992312</v>
+        <v>74.39063889115789</v>
       </c>
       <c r="E129">
-        <v>74.45822604831194</v>
+        <v>74.05924999886564</v>
       </c>
       <c r="F129">
-        <v>74.49002118528389</v>
+        <v>72.67827899777168</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>74.86973928451965</v>
+        <v>73.53727761905134</v>
       </c>
       <c r="C130">
-        <v>73.66707739935367</v>
+        <v>73.70444953986839</v>
       </c>
       <c r="D130">
-        <v>74.01537896791665</v>
+        <v>74.21584815201862</v>
       </c>
       <c r="E130">
-        <v>74.27885943894287</v>
+        <v>73.88810824006347</v>
       </c>
       <c r="F130">
-        <v>74.31062274451413</v>
+        <v>72.50070046683662</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>74.69000996060771</v>
+        <v>73.35884314482003</v>
       </c>
       <c r="C131">
-        <v>73.48850181049872</v>
+        <v>73.52583713338494</v>
       </c>
       <c r="D131">
-        <v>73.83645529730096</v>
+        <v>74.04120123070516</v>
       </c>
       <c r="E131">
-        <v>74.09967204529646</v>
+        <v>73.71715152819606</v>
       </c>
       <c r="F131">
-        <v>74.1314035556131</v>
+        <v>72.32329839886816</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>74.51045657346089</v>
+        <v>73.18058573497109</v>
       </c>
       <c r="C132">
-        <v>73.3101046192283</v>
+        <v>73.3474031041674</v>
       </c>
       <c r="D132">
-        <v>73.65771036415332</v>
+        <v>73.86670085775695</v>
       </c>
       <c r="E132">
-        <v>73.92066369699444</v>
+        <v>73.54637999913064</v>
       </c>
       <c r="F132">
-        <v>73.95236344826573</v>
+        <v>72.14607273188781</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>74.33107928859607</v>
+        <v>73.00250535836507</v>
       </c>
       <c r="C133">
-        <v>73.13188565925626</v>
+        <v>73.16914729250435</v>
       </c>
       <c r="D133">
-        <v>73.47914400292461</v>
+        <v>73.6923495325766</v>
       </c>
       <c r="E133">
-        <v>73.74183422257236</v>
+        <v>73.37579375736446</v>
       </c>
       <c r="F133">
-        <v>73.77350225062013</v>
+        <v>71.96902340250772</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>74.15187822563317</v>
+        <v>72.82460196745976</v>
       </c>
       <c r="C134">
-        <v>72.9538447638292</v>
+        <v>72.99106953636414</v>
       </c>
       <c r="D134">
-        <v>73.30075604619016</v>
+        <v>73.51814953811966</v>
       </c>
       <c r="E134">
-        <v>73.5631834495055</v>
+        <v>73.20539288415029</v>
       </c>
       <c r="F134">
-        <v>73.594819790291</v>
+        <v>71.79215032620256</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>73.97285348531732</v>
+        <v>72.64687549811039</v>
       </c>
       <c r="C135">
-        <v>72.77598176340079</v>
+        <v>72.81316967179079</v>
       </c>
       <c r="D135">
-        <v>73.12254632572363</v>
+        <v>73.34410295612901</v>
       </c>
       <c r="E135">
-        <v>73.38471120486075</v>
+        <v>73.03517743717866</v>
       </c>
       <c r="F135">
-        <v>73.41631589405075</v>
+        <v>71.61545340772159</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>73.7940051303089</v>
+        <v>72.46932587425508</v>
       </c>
       <c r="C136">
-        <v>72.59829648814095</v>
+        <v>72.6354475332014</v>
       </c>
       <c r="D136">
-        <v>72.94451467226951</v>
+        <v>73.17021169885214</v>
       </c>
       <c r="E136">
-        <v>73.20641731503416</v>
+        <v>72.86514745616249</v>
       </c>
       <c r="F136">
-        <v>73.23799038774777</v>
+        <v>71.43893254313883</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>73.61533320639755</v>
+        <v>72.29195300684283</v>
       </c>
       <c r="C137">
-        <v>72.42078876670809</v>
+        <v>72.45790295320762</v>
       </c>
       <c r="D137">
-        <v>72.76666091487715</v>
+        <v>72.99647750582304</v>
       </c>
       <c r="E137">
-        <v>73.02830160604113</v>
+        <v>72.69530296239407</v>
       </c>
       <c r="F137">
-        <v>73.0598430969434</v>
+        <v>71.26258761741758</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>73.43683773211728</v>
+        <v>72.11475679704243</v>
       </c>
       <c r="C138">
-        <v>72.24345842712086</v>
+        <v>72.28053576382673</v>
       </c>
       <c r="D138">
-        <v>72.58898488290971</v>
+        <v>72.82290197985613</v>
       </c>
       <c r="E138">
-        <v>72.85036390340233</v>
+        <v>72.52564396205571</v>
       </c>
       <c r="F138">
-        <v>72.88187384653348</v>
+        <v>71.08641850938139</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>73.25851870986934</v>
+        <v>71.93773713681898</v>
       </c>
       <c r="C139">
-        <v>72.06630529706709</v>
+        <v>72.10334579595964</v>
       </c>
       <c r="D139">
-        <v>72.41148640365329</v>
+        <v>72.64948657887008</v>
       </c>
       <c r="E139">
-        <v>72.67260403234995</v>
+        <v>72.35617044787297</v>
       </c>
       <c r="F139">
-        <v>72.7040824612701</v>
+        <v>70.91042509139993</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>73.08037612296309</v>
+        <v>71.76089390969909</v>
       </c>
       <c r="C140">
-        <v>71.88932920360337</v>
+        <v>71.92633287895573</v>
       </c>
       <c r="D140">
-        <v>72.23416530473943</v>
+        <v>72.47623264743262</v>
       </c>
       <c r="E140">
-        <v>72.49502181776829</v>
+        <v>72.18688239960376</v>
       </c>
       <c r="F140">
-        <v>72.52646876574998</v>
+        <v>70.73460723070941</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>72.90240994141737</v>
+        <v>71.58422699290647</v>
       </c>
       <c r="C141">
-        <v>71.71252997365113</v>
+        <v>71.74949684325384</v>
       </c>
       <c r="D141">
-        <v>72.05702141276461</v>
+        <v>72.30314140922734</v>
       </c>
       <c r="E141">
-        <v>72.31761708433901</v>
+        <v>72.01777978718538</v>
       </c>
       <c r="F141">
-        <v>72.34903258437882</v>
+        <v>70.55896478913074</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>72.72462011995103</v>
+        <v>71.40773625713615</v>
       </c>
       <c r="C142">
-        <v>71.53590743386991</v>
+        <v>71.57283751626889</v>
       </c>
       <c r="D142">
-        <v>71.8800545540455</v>
+        <v>72.13021399201008</v>
       </c>
       <c r="E142">
-        <v>72.14038965664255</v>
+        <v>71.84886257029153</v>
       </c>
       <c r="F142">
-        <v>72.17177374164559</v>
+        <v>70.38349762640689</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>72.54700660362386</v>
+        <v>71.23142156834609</v>
       </c>
       <c r="C143">
-        <v>71.35946141051986</v>
+        <v>71.39635472708592</v>
       </c>
       <c r="D143">
-        <v>71.70326455471698</v>
+        <v>71.95745142374039</v>
       </c>
       <c r="E143">
-        <v>71.96333935913393</v>
+        <v>71.68013070090906</v>
       </c>
       <c r="F143">
-        <v>71.99469206187553</v>
+        <v>70.2082055958183</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>72.36956932413447</v>
+        <v>71.05528278763087</v>
       </c>
       <c r="C144">
-        <v>71.18319172987935</v>
+        <v>71.22004830352085</v>
       </c>
       <c r="D144">
-        <v>71.52665124064181</v>
+        <v>71.78485464955617</v>
       </c>
       <c r="E144">
-        <v>71.78646601626642</v>
+        <v>71.51158412310129</v>
       </c>
       <c r="F144">
-        <v>71.81778736942861</v>
+        <v>70.03308855041681</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>72.19230820590693</v>
+        <v>70.87931977243062</v>
       </c>
       <c r="C145">
-        <v>71.00709821780202</v>
+        <v>71.04391807251967</v>
       </c>
       <c r="D145">
-        <v>71.35021443750638</v>
+        <v>71.61242453336781</v>
       </c>
       <c r="E145">
-        <v>71.60976945251694</v>
+        <v>71.34322277479514</v>
       </c>
       <c r="F145">
-        <v>71.64105948862669</v>
+        <v>69.85814633767617</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>72.0152231623332</v>
+        <v>70.70353237649411</v>
       </c>
       <c r="C146">
-        <v>70.83118070018141</v>
+        <v>70.86796386158255</v>
       </c>
       <c r="D146">
-        <v>71.17395397107424</v>
+        <v>71.44016186674664</v>
       </c>
       <c r="E146">
-        <v>71.4332494923199</v>
+        <v>71.17504658774261</v>
       </c>
       <c r="F146">
-        <v>71.464508243757</v>
+        <v>69.68337880430184</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>71.83831410055845</v>
+        <v>70.52792045049256</v>
       </c>
       <c r="C147">
-        <v>70.6554390027438</v>
+        <v>70.69218549735153</v>
       </c>
       <c r="D147">
-        <v>70.99786966689112</v>
+        <v>71.26806737566953</v>
       </c>
       <c r="E147">
-        <v>71.2569059602157</v>
+        <v>71.00705548851764</v>
       </c>
       <c r="F147">
-        <v>71.2881334591769</v>
+        <v>69.5087857937966</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>71.66158091936025</v>
+        <v>70.35248384248125</v>
       </c>
       <c r="C148">
-        <v>70.47987295119135</v>
+        <v>70.51658280660469</v>
       </c>
       <c r="D148">
-        <v>70.82196135050911</v>
+        <v>71.09614172225419</v>
       </c>
       <c r="E148">
-        <v>71.08073868071644</v>
+        <v>70.83924939909706</v>
       </c>
       <c r="F148">
-        <v>71.11193495925376</v>
+        <v>69.33436714807087</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>71.48502351196602</v>
+        <v>70.17722239763357</v>
       </c>
       <c r="C149">
-        <v>70.30448237127648</v>
+        <v>70.34115561591294</v>
       </c>
       <c r="D149">
-        <v>70.64622884750244</v>
+        <v>70.92438551535628</v>
       </c>
       <c r="E149">
-        <v>70.9047474784434</v>
+        <v>70.67162823659366</v>
       </c>
       <c r="F149">
-        <v>70.93591256845701</v>
+        <v>69.16012270732331</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>71.30864176528732</v>
+        <v>70.00213595972392</v>
       </c>
       <c r="C150">
-        <v>70.12926708874323</v>
+        <v>70.16590375179473</v>
       </c>
       <c r="D150">
-        <v>70.47067198331273</v>
+        <v>70.75279930461177</v>
       </c>
       <c r="E150">
-        <v>70.72893217806271</v>
+        <v>70.50419191537672</v>
       </c>
       <c r="F150">
-        <v>70.76006611135746</v>
+        <v>68.98605231045626</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>71.13243556161123</v>
+        <v>69.82722437051456</v>
       </c>
       <c r="C151">
-        <v>69.95422692941662</v>
+        <v>69.9908270407755</v>
       </c>
       <c r="D151">
-        <v>70.29529058350798</v>
+        <v>70.581383601013</v>
       </c>
       <c r="E151">
-        <v>70.5532926043457</v>
+        <v>70.33694034636954</v>
       </c>
       <c r="F151">
-        <v>70.58439541262085</v>
+        <v>68.8121557951021</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>70.95640477810302</v>
+        <v>69.65248746944691</v>
       </c>
       <c r="C152">
-        <v>69.77936171919299</v>
+        <v>69.81592530925332</v>
       </c>
       <c r="D152">
-        <v>70.12008447362953</v>
+        <v>70.410138869767</v>
       </c>
       <c r="E152">
-        <v>70.37782858216787</v>
+        <v>70.16987343626762</v>
       </c>
       <c r="F152">
-        <v>70.40890029705947</v>
+        <v>68.63843299789981</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>70.78054928827041</v>
+        <v>69.47792509632116</v>
       </c>
       <c r="C153">
-        <v>69.6046712840042</v>
+        <v>69.6411983838404</v>
       </c>
       <c r="D153">
-        <v>69.94505347928957</v>
+        <v>70.23906552254032</v>
       </c>
       <c r="E153">
-        <v>70.20253993651789</v>
+        <v>70.0029910918048</v>
       </c>
       <c r="F153">
-        <v>70.23358058958578</v>
+        <v>68.46488375470931</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>70.60486896128596</v>
+        <v>69.30353708816213</v>
       </c>
       <c r="C154">
-        <v>69.43015544990824</v>
+        <v>69.46664609102844</v>
       </c>
       <c r="D154">
-        <v>69.77019742620263</v>
+        <v>70.06816395743762</v>
       </c>
       <c r="E154">
-        <v>70.02742649251969</v>
+        <v>69.83629321548166</v>
       </c>
       <c r="F154">
-        <v>70.05843611525273</v>
+        <v>68.29150790027681</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>70.4293636633795</v>
+        <v>69.12932328132689</v>
       </c>
       <c r="C155">
-        <v>69.25581404300303</v>
+        <v>69.2922682573595</v>
       </c>
       <c r="D155">
-        <v>69.59551614016293</v>
+        <v>69.89743452416705</v>
       </c>
       <c r="E155">
-        <v>69.85248807538828</v>
+        <v>69.66977970765522</v>
       </c>
       <c r="F155">
-        <v>69.88346669923793</v>
+        <v>68.11830526903529</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>70.25403325720663</v>
+        <v>68.95528351249305</v>
       </c>
       <c r="C156">
-        <v>69.08164688951669</v>
+        <v>69.11806470954582</v>
       </c>
       <c r="D156">
-        <v>69.42100944706205</v>
+        <v>69.72687753164216</v>
       </c>
       <c r="E156">
-        <v>69.67772451052268</v>
+        <v>69.5034504691113</v>
       </c>
       <c r="F156">
-        <v>69.70867216684844</v>
+        <v>67.94527569438542</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>70.0788776029396</v>
+        <v>68.78141761516173</v>
       </c>
       <c r="C157">
-        <v>68.90765381577125</v>
+        <v>68.94403527418075</v>
       </c>
       <c r="D157">
-        <v>69.2466771729456</v>
+        <v>69.55649328325555</v>
       </c>
       <c r="E157">
-        <v>69.5031356234657</v>
+        <v>69.33730539580694</v>
       </c>
       <c r="F157">
-        <v>69.53405234353829</v>
+        <v>67.77241900950243</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>69.90389655791842</v>
+        <v>68.60772542411921</v>
       </c>
       <c r="C158">
-        <v>68.73383464820942</v>
+        <v>68.77017977807455</v>
       </c>
       <c r="D158">
-        <v>69.07251914392381</v>
+        <v>69.38628203404687</v>
       </c>
       <c r="E158">
-        <v>69.32872123981441</v>
+        <v>69.17134438452197</v>
       </c>
       <c r="F158">
-        <v>69.35960705489957</v>
+        <v>67.59973504690257</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>69.72908997735838</v>
+        <v>68.43420677292937</v>
       </c>
       <c r="C159">
-        <v>68.56018921340977</v>
+        <v>68.59649804806483</v>
       </c>
       <c r="D159">
-        <v>68.89853518627872</v>
+        <v>69.21624401723723</v>
       </c>
       <c r="E159">
-        <v>69.15448118543759</v>
+        <v>69.00556733045572</v>
       </c>
       <c r="F159">
-        <v>69.18533612667886</v>
+        <v>67.42722363882824</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>69.55445771423489</v>
+        <v>68.26086149398171</v>
       </c>
       <c r="C160">
-        <v>68.3867173380784</v>
+        <v>68.42298991108677</v>
       </c>
       <c r="D160">
-        <v>68.72472512639337</v>
+        <v>69.0463794522141</v>
       </c>
       <c r="E160">
-        <v>68.98041528631259</v>
+        <v>68.83997412647641</v>
       </c>
       <c r="F160">
-        <v>69.01123938477797</v>
+        <v>67.25488461714497</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>69.37999961962396</v>
+        <v>68.08768941994126</v>
       </c>
       <c r="C161">
-        <v>68.21341884906363</v>
+        <v>68.24965519419017</v>
       </c>
       <c r="D161">
-        <v>68.55108879078389</v>
+        <v>68.87668852203694</v>
       </c>
       <c r="E161">
-        <v>68.80652336849404</v>
+        <v>68.67456466566385</v>
       </c>
       <c r="F161">
-        <v>68.83731665525266</v>
+        <v>67.08271781352801</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>69.20571554274728</v>
+        <v>67.91469038276274</v>
       </c>
       <c r="C162">
-        <v>68.04029357335891</v>
+        <v>68.0764937245492</v>
       </c>
       <c r="D162">
-        <v>68.37762600611111</v>
+        <v>68.7071713980491</v>
       </c>
       <c r="E162">
-        <v>68.63280525830383</v>
+        <v>68.50933883980007</v>
       </c>
       <c r="F162">
-        <v>68.66356776432292</v>
+        <v>66.91072305935225</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>69.03160533175539</v>
+        <v>67.74186421406206</v>
       </c>
       <c r="C163">
-        <v>67.86734133809348</v>
+        <v>67.90350532946144</v>
       </c>
       <c r="D163">
-        <v>68.20433659916989</v>
+        <v>68.53782823214257</v>
       </c>
       <c r="E163">
-        <v>68.45926078216515</v>
+        <v>68.34429653980733</v>
       </c>
       <c r="F163">
-        <v>68.48999253835517</v>
+        <v>66.73890018592812</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>68.8576688328542</v>
+        <v>67.5692107453588</v>
       </c>
       <c r="C164">
-        <v>67.69456197054809</v>
+        <v>67.73068983634275</v>
       </c>
       <c r="D164">
-        <v>68.03122039690342</v>
+        <v>68.36865915374405</v>
       </c>
       <c r="E164">
-        <v>68.28588976663649</v>
+        <v>68.17943765635339</v>
       </c>
       <c r="F164">
-        <v>68.3165908038871</v>
+        <v>66.56724902434152</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>68.68390589085011</v>
+        <v>67.39672980770389</v>
       </c>
       <c r="C165">
-        <v>67.52195529814294</v>
+        <v>67.55804707276188</v>
       </c>
       <c r="D165">
-        <v>67.85827722640769</v>
+        <v>68.19966428145734</v>
       </c>
       <c r="E165">
-        <v>68.11269203848025</v>
+        <v>68.01476207922644</v>
       </c>
       <c r="F165">
-        <v>68.143362387633</v>
+        <v>66.39576940561179</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>68.51031635048135</v>
+        <v>67.224421232219</v>
       </c>
       <c r="C166">
-        <v>67.34952114846897</v>
+        <v>67.38557686642767</v>
       </c>
       <c r="D166">
-        <v>67.68550691492989</v>
+        <v>68.03084371744414</v>
       </c>
       <c r="E166">
-        <v>67.93966742459665</v>
+        <v>67.85026969800437</v>
       </c>
       <c r="F166">
-        <v>67.9703071164348</v>
+        <v>66.2244611606701</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>68.33690005440735</v>
+        <v>67.05228484987204</v>
       </c>
       <c r="C167">
-        <v>67.1772593492574</v>
+        <v>67.21327904515944</v>
       </c>
       <c r="D167">
-        <v>67.51290928987045</v>
+        <v>67.86219754658219</v>
       </c>
       <c r="E167">
-        <v>67.76681575204898</v>
+        <v>67.68596040207873</v>
       </c>
       <c r="F167">
-        <v>67.79742481732546</v>
+        <v>66.05332412036286</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>68.16365684412382</v>
+        <v>66.88032049121948</v>
       </c>
       <c r="C168">
-        <v>67.00516972838831</v>
+        <v>67.04115343696157</v>
       </c>
       <c r="D168">
-        <v>67.34048417879421</v>
+        <v>67.69372584630877</v>
       </c>
       <c r="E168">
-        <v>67.59413684806844</v>
+        <v>67.52183407992986</v>
       </c>
       <c r="F168">
-        <v>67.6247153175198</v>
+        <v>65.88235811553399</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>67.99058656152272</v>
+        <v>66.70852798711648</v>
       </c>
       <c r="C169">
-        <v>66.83325211393083</v>
+        <v>66.86919986994815</v>
       </c>
       <c r="D169">
-        <v>67.16823140941274</v>
+        <v>67.52542867907542</v>
       </c>
       <c r="E169">
-        <v>67.42163054005222</v>
+        <v>67.35789062045399</v>
       </c>
       <c r="F169">
-        <v>67.45217844435604</v>
+        <v>65.71156297698366</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>67.81768904667351</v>
+        <v>66.53690716816099</v>
       </c>
       <c r="C170">
-        <v>66.66150633409265</v>
+        <v>66.69741817239913</v>
       </c>
       <c r="D170">
-        <v>66.99615080960832</v>
+        <v>67.35730609376883</v>
       </c>
       <c r="E170">
-        <v>67.24929665556348</v>
+        <v>67.19412991213663</v>
       </c>
       <c r="F170">
-        <v>67.27981402536295</v>
+        <v>65.54093853553294</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>67.64496413874461</v>
+        <v>66.36545786481257</v>
       </c>
       <c r="C171">
-        <v>66.48993221722677</v>
+        <v>66.5258081727419</v>
       </c>
       <c r="D171">
-        <v>66.82424220741396</v>
+        <v>67.18935813392474</v>
       </c>
       <c r="E171">
-        <v>67.07713502233426</v>
+        <v>67.0305518430217</v>
       </c>
       <c r="F171">
-        <v>67.1076218882487</v>
+        <v>65.37048462199775</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>67.47241167709105</v>
+        <v>66.19417990771041</v>
       </c>
       <c r="C172">
-        <v>66.31852959188564</v>
+        <v>66.35436969955178</v>
       </c>
       <c r="D172">
-        <v>66.65250543102907</v>
+        <v>67.02158482904939</v>
       </c>
       <c r="E172">
-        <v>66.9051454682568</v>
+        <v>66.86715630147553</v>
       </c>
       <c r="F172">
-        <v>66.93560186086231</v>
+        <v>65.20020106728167</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>67.30003149988346</v>
+        <v>66.02307312731743</v>
       </c>
       <c r="C173">
-        <v>66.14729828676398</v>
+        <v>66.18310258156168</v>
       </c>
       <c r="D173">
-        <v>66.48094030881329</v>
+        <v>66.85398619978295</v>
       </c>
       <c r="E173">
-        <v>66.73332782140187</v>
+        <v>66.70394317557086</v>
       </c>
       <c r="F173">
-        <v>66.76375377123091</v>
+        <v>65.03008770234062</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>67.12782344468397</v>
+        <v>65.85213735417138</v>
       </c>
       <c r="C174">
-        <v>65.97623813070378</v>
+        <v>66.01200664766138</v>
       </c>
       <c r="D174">
-        <v>66.3095466692893</v>
+        <v>66.68656226060422</v>
       </c>
       <c r="E174">
-        <v>66.56168191000636</v>
+        <v>66.54091235336146</v>
       </c>
       <c r="F174">
-        <v>66.5920774475548</v>
+        <v>64.86014435806146</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>66.95578734891221</v>
+        <v>65.68137241884668</v>
       </c>
       <c r="C175">
-        <v>65.80534895273854</v>
+        <v>65.84108172689916</v>
       </c>
       <c r="D175">
-        <v>66.13832434114411</v>
+        <v>66.51931301465997</v>
       </c>
       <c r="E175">
-        <v>66.39020756246369</v>
+        <v>66.37806372303793</v>
       </c>
       <c r="F175">
-        <v>66.42057271819586</v>
+        <v>64.69037086559493</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>66.78392304934088</v>
+        <v>65.51077815191486</v>
       </c>
       <c r="C176">
-        <v>65.63463058205392</v>
+        <v>65.67032764848226</v>
       </c>
       <c r="D176">
-        <v>65.96727315322973</v>
+        <v>66.35223845947557</v>
       </c>
       <c r="E176">
-        <v>66.21890460734976</v>
+        <v>66.21539717271251</v>
       </c>
       <c r="F176">
-        <v>66.24923941168571</v>
+        <v>64.52076705616518</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>66.61223038236044</v>
+        <v>65.340354384045</v>
       </c>
       <c r="C177">
-        <v>65.46408284799283</v>
+        <v>65.49974424177726</v>
       </c>
       <c r="D177">
-        <v>65.79639293456401</v>
+        <v>66.18533858574662</v>
       </c>
       <c r="E177">
-        <v>66.04777287340339</v>
+        <v>66.05291259068859</v>
       </c>
       <c r="F177">
-        <v>66.07807735672534</v>
+        <v>64.35133276084997</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>66.44070918416411</v>
+        <v>65.1701009459544</v>
       </c>
       <c r="C178">
-        <v>65.29370558007433</v>
+        <v>65.32933133631749</v>
       </c>
       <c r="D178">
-        <v>65.62568351433003</v>
+        <v>66.01861337583082</v>
       </c>
       <c r="E178">
-        <v>65.87681218952694</v>
+        <v>65.89060986537105</v>
       </c>
       <c r="F178">
-        <v>65.90708638218568</v>
+        <v>64.18206781106981</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>66.26935929049546</v>
+        <v>65.00001766841962</v>
       </c>
       <c r="C179">
-        <v>65.12349860797926</v>
+        <v>65.15908876178858</v>
       </c>
       <c r="D179">
-        <v>65.45514472187448</v>
+        <v>65.85206280784806</v>
       </c>
       <c r="E179">
-        <v>65.70602238479714</v>
+        <v>65.72848888522812</v>
       </c>
       <c r="F179">
-        <v>65.73626631710678</v>
+        <v>64.01297203833087</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>66.09818053684609</v>
+        <v>64.83010438235121</v>
       </c>
       <c r="C180">
-        <v>64.95346176155346</v>
+        <v>64.98901634804753</v>
       </c>
       <c r="D180">
-        <v>65.28477638671643</v>
+        <v>65.68568685374196</v>
       </c>
       <c r="E180">
-        <v>65.53540328845713</v>
+        <v>65.56654953901551</v>
       </c>
       <c r="F180">
-        <v>65.56561699069844</v>
+        <v>63.84404527412075</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>65.92717275864719</v>
+        <v>64.66036091869604</v>
       </c>
       <c r="C181">
-        <v>64.78359487081148</v>
+        <v>64.8191139251102</v>
       </c>
       <c r="D181">
-        <v>65.11457833854136</v>
+        <v>65.5194854789158</v>
       </c>
       <c r="E181">
-        <v>65.36495472991861</v>
+        <v>65.40479171560987</v>
       </c>
       <c r="F181">
-        <v>65.39513823233823</v>
+        <v>63.67528735007854</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>65.75633579091321</v>
+        <v>64.49078710852376</v>
       </c>
       <c r="C182">
-        <v>64.61389776593393</v>
+        <v>64.64938132315422</v>
       </c>
       <c r="D182">
-        <v>64.94455040719095</v>
+        <v>65.35345864556207</v>
       </c>
       <c r="E182">
-        <v>65.1946765387618</v>
+        <v>65.24321530405967</v>
       </c>
       <c r="F182">
-        <v>65.2248298715746</v>
+        <v>63.5066980980398</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>65.58566946848295</v>
+        <v>64.32138278303447</v>
       </c>
       <c r="C183">
-        <v>64.44437027726669</v>
+        <v>64.47981837252399</v>
       </c>
       <c r="D183">
-        <v>64.77469242268724</v>
+        <v>65.18760631038494</v>
       </c>
       <c r="E183">
-        <v>65.02456854473675</v>
+        <v>65.08182019374156</v>
       </c>
       <c r="F183">
-        <v>65.05469173812718</v>
+        <v>63.33827734990307</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>65.41517362622743</v>
+        <v>64.15214777347003</v>
       </c>
       <c r="C184">
-        <v>64.27501223532629</v>
+        <v>64.31042490372595</v>
       </c>
       <c r="D184">
-        <v>64.60500421521711</v>
+        <v>65.02192842496054</v>
       </c>
       <c r="E184">
-        <v>64.85463057776236</v>
+        <v>64.92060627416261</v>
       </c>
       <c r="F184">
-        <v>64.88472366188073</v>
+        <v>63.17002493765938</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>65.24484809867992</v>
+        <v>63.98308191124675</v>
       </c>
       <c r="C185">
-        <v>64.10582347079523</v>
+        <v>64.14120074743222</v>
       </c>
       <c r="D185">
-        <v>64.43548561512713</v>
+        <v>64.85642493827353</v>
       </c>
       <c r="E185">
-        <v>64.68486246792649</v>
+        <v>64.75957343513998</v>
       </c>
       <c r="F185">
-        <v>64.7149254728908</v>
+        <v>63.00194069349417</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>65.07469272025649</v>
+        <v>63.81418502787952</v>
       </c>
       <c r="C186">
-        <v>63.93680381451919</v>
+        <v>63.97214573447957</v>
       </c>
       <c r="D186">
-        <v>64.26613645293651</v>
+        <v>64.6910957943653</v>
       </c>
       <c r="E186">
-        <v>64.51526404548511</v>
+        <v>64.59872156677856</v>
       </c>
       <c r="F186">
-        <v>64.54529700138384</v>
+        <v>62.83402444970375</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>64.9047073254015</v>
+        <v>63.64545695498867</v>
       </c>
       <c r="C187">
-        <v>63.76795309751695</v>
+        <v>63.80325969587022</v>
       </c>
       <c r="D187">
-        <v>64.09695655933358</v>
+        <v>64.52594093366849</v>
       </c>
       <c r="E187">
-        <v>64.34583514086432</v>
+        <v>64.43805055940074</v>
       </c>
       <c r="F187">
-        <v>64.3758380777525</v>
+        <v>62.66627603870467</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>64.73489174835935</v>
+        <v>63.47689752434444</v>
       </c>
       <c r="C188">
-        <v>63.59927115097255</v>
+        <v>63.6345424627722</v>
       </c>
       <c r="D188">
-        <v>63.92794576517112</v>
+        <v>64.36096029403632</v>
       </c>
       <c r="E188">
-        <v>64.17657558465919</v>
+        <v>64.27756030368708</v>
       </c>
       <c r="F188">
-        <v>64.20654853255874</v>
+        <v>62.49869529307888</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>64.56524582331076</v>
+        <v>63.30850656783543</v>
       </c>
       <c r="C189">
-        <v>63.43075780623354</v>
+        <v>63.4659938665182</v>
       </c>
       <c r="D189">
-        <v>63.75910390146814</v>
+        <v>64.19615380916966</v>
       </c>
       <c r="E189">
-        <v>64.00748520763105</v>
+        <v>64.11725069060624</v>
       </c>
       <c r="F189">
-        <v>64.03742819653392</v>
+        <v>62.33128204554867</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>64.39576938444405</v>
+        <v>63.14028391748551</v>
       </c>
       <c r="C190">
-        <v>63.26241289481908</v>
+        <v>63.29761373860829</v>
       </c>
       <c r="D190">
-        <v>63.59043079941419</v>
+        <v>64.0315214103497</v>
       </c>
       <c r="E190">
-        <v>63.8385638407123</v>
+        <v>63.95712161143059</v>
       </c>
       <c r="F190">
-        <v>63.86847690057777</v>
+        <v>62.16403612895505</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>64.22646226585631</v>
+        <v>62.97222940546253</v>
       </c>
       <c r="C191">
-        <v>63.09423624841397</v>
+        <v>63.12940191070579</v>
       </c>
       <c r="D191">
-        <v>63.42192629036506</v>
+        <v>63.86706302625151</v>
       </c>
       <c r="E191">
-        <v>63.66981131500302</v>
+        <v>63.7971729577952</v>
       </c>
       <c r="F191">
-        <v>63.69969447575835</v>
+        <v>61.99695737631959</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>64.0573243016289</v>
+        <v>62.80434286405983</v>
       </c>
       <c r="C192">
-        <v>62.92622769886874</v>
+        <v>62.96135821464117</v>
       </c>
       <c r="D192">
-        <v>63.253590205843</v>
+        <v>63.70277858221985</v>
       </c>
       <c r="E192">
-        <v>63.50122746177046</v>
+        <v>63.63740462165188</v>
       </c>
       <c r="F192">
-        <v>63.53108075331204</v>
+        <v>61.83004562080947</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>63.88835532586701</v>
+        <v>62.63662412572747</v>
       </c>
       <c r="C193">
-        <v>62.75838707820235</v>
+        <v>62.79348248241273</v>
       </c>
       <c r="D193">
-        <v>63.08542237753899</v>
+        <v>63.53866800191464</v>
       </c>
       <c r="E193">
-        <v>63.33281211245122</v>
+        <v>63.47781649530869</v>
       </c>
       <c r="F193">
-        <v>63.36263556464403</v>
+        <v>61.66330069571562</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>63.71955517262972</v>
+        <v>62.46907302305571</v>
       </c>
       <c r="C194">
-        <v>62.59071421860028</v>
+        <v>62.6257745461853</v>
       </c>
       <c r="D194">
-        <v>62.91742263731111</v>
+        <v>63.37473120655106</v>
       </c>
       <c r="E194">
-        <v>63.16456509864955</v>
+        <v>63.31840847145175</v>
       </c>
       <c r="F194">
-        <v>63.19435874132772</v>
+        <v>61.49672243449675</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>63.55092367599914</v>
+        <v>62.30168938876915</v>
       </c>
       <c r="C195">
-        <v>62.4232089524149</v>
+        <v>62.45823423828075</v>
       </c>
       <c r="D195">
-        <v>62.74959081718371</v>
+        <v>63.21096811474877</v>
       </c>
       <c r="E195">
-        <v>62.99648625213769</v>
+        <v>63.15918044309329</v>
       </c>
       <c r="F195">
-        <v>63.02625011510454</v>
+        <v>61.33031067077581</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>63.38246067011707</v>
+        <v>62.13447305575551</v>
       </c>
       <c r="C196">
-        <v>62.25587111216552</v>
+        <v>62.29086139119818</v>
       </c>
       <c r="D196">
-        <v>62.58192674934962</v>
+        <v>63.047378643781</v>
       </c>
       <c r="E196">
-        <v>62.8285754048556</v>
+        <v>63.00013230365818</v>
       </c>
       <c r="F196">
-        <v>62.8583095178838</v>
+        <v>61.1640652383121</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>63.21416598909752</v>
+        <v>61.96742385704194</v>
       </c>
       <c r="C197">
-        <v>62.08870053053829</v>
+        <v>62.12365583760047</v>
       </c>
       <c r="D197">
-        <v>62.41443026616877</v>
+        <v>62.88396270879715</v>
       </c>
       <c r="E197">
-        <v>62.66083238891112</v>
+        <v>62.84126394694231</v>
       </c>
       <c r="F197">
-        <v>62.69053678174286</v>
+        <v>60.99798597101165</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>63.0460394671049</v>
+        <v>61.80054162580344</v>
       </c>
       <c r="C198">
-        <v>61.92169704038566</v>
+        <v>61.95661741031505</v>
       </c>
       <c r="D198">
-        <v>62.24710120016708</v>
+        <v>62.72072022292898</v>
       </c>
       <c r="E198">
-        <v>62.4932570365798</v>
+        <v>62.68257526710858</v>
       </c>
       <c r="F198">
-        <v>62.52293173892711</v>
+        <v>60.83207270295578</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>62.87808093838689</v>
+        <v>61.63382619537396</v>
       </c>
       <c r="C199">
-        <v>61.75486047472725</v>
+        <v>61.78974594232844</v>
       </c>
       <c r="D199">
-        <v>62.07993938403774</v>
+        <v>62.55765109818639</v>
       </c>
       <c r="E199">
-        <v>62.32584918030457</v>
+        <v>62.52406615874106</v>
       </c>
       <c r="F199">
-        <v>62.35549422184889</v>
+        <v>60.66632526837234</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>62.71029023719169</v>
+        <v>61.46727739923108</v>
       </c>
       <c r="C200">
-        <v>61.58819066674914</v>
+        <v>61.62304126680375</v>
       </c>
       <c r="D200">
-        <v>61.91294465064156</v>
+        <v>62.3947552447217</v>
       </c>
       <c r="E200">
-        <v>62.15860865269563</v>
+        <v>62.36573651681059</v>
       </c>
       <c r="F200">
-        <v>62.1882240630881</v>
+        <v>60.50074350163642</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>62.54266719783597</v>
+        <v>61.30089507101072</v>
       </c>
       <c r="C201">
-        <v>61.42168744980277</v>
+        <v>61.45650321706687</v>
       </c>
       <c r="D201">
-        <v>61.74611683300537</v>
+        <v>62.2320325712305</v>
       </c>
       <c r="E201">
-        <v>61.99153528653051</v>
+        <v>62.2075862366904</v>
       </c>
       <c r="F201">
-        <v>62.02112109539231</v>
+        <v>60.33532723729178</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>62.37521165472708</v>
+        <v>61.13467904450255</v>
       </c>
       <c r="C202">
-        <v>61.25535065740696</v>
+        <v>61.29013162660639</v>
       </c>
       <c r="D202">
-        <v>61.57945576432176</v>
+        <v>62.06948298537284</v>
       </c>
       <c r="E202">
-        <v>61.82462891475394</v>
+        <v>62.04961521417753</v>
       </c>
       <c r="F202">
-        <v>61.85418515167576</v>
+        <v>60.17007631003614</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>62.20792344230985</v>
+        <v>60.96862915364809</v>
       </c>
       <c r="C203">
-        <v>61.08918012324636</v>
+        <v>61.12392632907587</v>
       </c>
       <c r="D203">
-        <v>61.41296127795101</v>
+        <v>61.9071063932353</v>
       </c>
       <c r="E203">
-        <v>61.65788937047709</v>
+        <v>61.89182334546334</v>
       </c>
       <c r="F203">
-        <v>61.68741606501965</v>
+        <v>60.0049905547219</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>62.04080239511161</v>
+        <v>60.80274523254847</v>
       </c>
       <c r="C204">
-        <v>60.9231756811708</v>
+        <v>60.9578871582984</v>
       </c>
       <c r="D204">
-        <v>61.24663320741928</v>
+        <v>61.74490269991727</v>
       </c>
       <c r="E204">
-        <v>61.49131648697827</v>
+        <v>61.73421052717931</v>
       </c>
       <c r="F204">
-        <v>61.52081366867213</v>
+        <v>59.84006980636431</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>61.87384834775506</v>
+        <v>60.63702711545768</v>
       </c>
       <c r="C205">
-        <v>60.75733716519674</v>
+        <v>60.79201394826093</v>
       </c>
       <c r="D205">
-        <v>61.08047138641821</v>
+        <v>61.58287180953663</v>
       </c>
       <c r="E205">
-        <v>61.32491009770235</v>
+        <v>61.57677665638892</v>
       </c>
       <c r="F205">
-        <v>61.35437779604797</v>
+        <v>59.6753139001373</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>61.70706113492876</v>
+        <v>60.47147463678535</v>
       </c>
       <c r="C206">
-        <v>60.59166440950614</v>
+        <v>60.62630653311415</v>
       </c>
       <c r="D206">
-        <v>60.9144756488062</v>
+        <v>61.42101362464176</v>
       </c>
       <c r="E206">
-        <v>61.15867003626038</v>
+        <v>61.41952163059331</v>
       </c>
       <c r="F206">
-        <v>61.18810828072841</v>
+        <v>59.51072267137042</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>61.54044059141732</v>
+        <v>60.30608763110503</v>
       </c>
       <c r="C207">
-        <v>60.4261572484462</v>
+        <v>60.46076474717524</v>
       </c>
       <c r="D207">
-        <v>60.74864582860729</v>
+        <v>61.25932804749408</v>
       </c>
       <c r="E207">
-        <v>60.99259613642993</v>
+        <v>61.26244534767735</v>
       </c>
       <c r="F207">
-        <v>61.02200495646101</v>
+        <v>59.34629595555645</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>61.37398655210983</v>
+        <v>60.14086593314902</v>
       </c>
       <c r="C208">
-        <v>60.26081551652982</v>
+        <v>60.29538842492652</v>
       </c>
       <c r="D208">
-        <v>60.58298176001119</v>
+        <v>61.09781497943804</v>
       </c>
       <c r="E208">
-        <v>60.82668823215464</v>
+        <v>61.10554770601474</v>
       </c>
       <c r="F208">
-        <v>60.85606765715962</v>
+        <v>59.18203358834937</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>61.2076988519761</v>
+        <v>59.97580937780194</v>
       </c>
       <c r="C209">
-        <v>60.09563904843508</v>
+        <v>60.13017740101517</v>
       </c>
       <c r="D209">
-        <v>60.41748327737326</v>
+        <v>60.93647432117987</v>
       </c>
       <c r="E209">
-        <v>60.66094615754412</v>
+        <v>60.94882860443621</v>
       </c>
       <c r="F209">
-        <v>60.69029621690412</v>
+        <v>59.01793540555956</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>61.04157732609455</v>
+        <v>59.81091780009756</v>
       </c>
       <c r="C210">
-        <v>59.93062767900518</v>
+        <v>59.96513151025313</v>
       </c>
       <c r="D210">
-        <v>60.25215021521441</v>
+        <v>60.77530597153292</v>
       </c>
       <c r="E210">
-        <v>60.49536974687382</v>
+        <v>60.79228794222234</v>
       </c>
       <c r="F210">
-        <v>60.52469046994029</v>
+        <v>58.85400124315738</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>60.87562180965853</v>
+        <v>59.64619103525229</v>
       </c>
       <c r="C211">
-        <v>59.76578124324837</v>
+        <v>59.8002505876174</v>
       </c>
       <c r="D211">
-        <v>60.08698240822076</v>
+        <v>60.61430982966277</v>
       </c>
       <c r="E211">
-        <v>60.32995883458487</v>
+        <v>60.63592561903681</v>
       </c>
       <c r="F211">
-        <v>60.35925025067962</v>
+        <v>58.69023093727809</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>60.7098321379514</v>
+        <v>59.48162891863682</v>
       </c>
       <c r="C212">
-        <v>59.60109957633773</v>
+        <v>59.63553446824967</v>
       </c>
       <c r="D212">
-        <v>59.92197969124364</v>
+        <v>60.45348579441637</v>
       </c>
       <c r="E212">
-        <v>60.16471325528396</v>
+        <v>60.47974153504755</v>
       </c>
       <c r="F212">
-        <v>60.19397539369918</v>
+        <v>58.52662432421486</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>60.5442081463748</v>
+        <v>59.31723128577697</v>
       </c>
       <c r="C213">
-        <v>59.436582513611</v>
+        <v>59.47098298745603</v>
       </c>
       <c r="D213">
-        <v>59.75714189929952</v>
+        <v>60.29283376404452</v>
       </c>
       <c r="E213">
-        <v>59.99963284374314</v>
+        <v>60.32373559090984</v>
       </c>
       <c r="F213">
-        <v>60.02886573374156</v>
+        <v>58.36318124041801</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>60.37874967045266</v>
+        <v>59.15299797233479</v>
       </c>
       <c r="C214">
-        <v>59.27222989057055</v>
+        <v>59.30659598070661</v>
       </c>
       <c r="D214">
-        <v>59.59246886756971</v>
+        <v>60.13235363522172</v>
       </c>
       <c r="E214">
-        <v>59.83471743489966</v>
+        <v>60.16790768773195</v>
       </c>
       <c r="F214">
-        <v>59.86392110571451</v>
+        <v>58.19990152250371</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>60.21345654580966</v>
+        <v>58.98892881417046</v>
       </c>
       <c r="C215">
-        <v>59.1080415428832</v>
+        <v>59.14237328363666</v>
       </c>
       <c r="D215">
-        <v>59.42796043140005</v>
+        <v>59.97204530415863</v>
       </c>
       <c r="E215">
-        <v>59.66996686385583</v>
+        <v>60.01225772704125</v>
       </c>
       <c r="F215">
-        <v>59.69914134469086</v>
+        <v>58.03678500724718</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>60.0483286081951</v>
+        <v>58.82502364729295</v>
       </c>
       <c r="C216">
-        <v>58.94401730637983</v>
+        <v>58.97831473204542</v>
       </c>
       <c r="D216">
-        <v>59.26361642630123</v>
+        <v>59.81190866802238</v>
       </c>
       <c r="E216">
-        <v>59.5053809658788</v>
+        <v>59.85678561085538</v>
       </c>
       <c r="F216">
-        <v>59.53452628590847</v>
+        <v>57.87383153158198</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>59.88336569348511</v>
+        <v>58.66128230787104</v>
       </c>
       <c r="C217">
-        <v>58.78015701705563</v>
+        <v>58.81442016189542</v>
       </c>
       <c r="D217">
-        <v>59.09943668794835</v>
+        <v>59.65194362311304</v>
       </c>
       <c r="E217">
-        <v>59.34095957640056</v>
+        <v>59.70149124169627</v>
       </c>
       <c r="F217">
-        <v>59.37007576476993</v>
+        <v>57.71104093260519</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>59.71856763765924</v>
+        <v>58.49770463221013</v>
       </c>
       <c r="C218">
-        <v>58.61646051106969</v>
+        <v>58.65068940931322</v>
       </c>
       <c r="D218">
-        <v>58.93542105218049</v>
+        <v>59.49215006496976</v>
       </c>
       <c r="E218">
-        <v>59.17670253101769</v>
+        <v>59.54637452254879</v>
       </c>
       <c r="F218">
-        <v>59.2057896168424</v>
+        <v>57.54841304757402</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>59.5539342768339</v>
+        <v>58.33429045680735</v>
       </c>
       <c r="C219">
-        <v>58.45292762474468</v>
+        <v>58.48712231058971</v>
       </c>
       <c r="D219">
-        <v>58.77156935500113</v>
+        <v>59.33252788784956</v>
       </c>
       <c r="E219">
-        <v>59.0126096654912</v>
+        <v>59.39143535686005</v>
       </c>
       <c r="F219">
-        <v>59.04166767785757</v>
+        <v>57.38594771390562</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>59.38946544726002</v>
+        <v>58.1710396183103</v>
       </c>
       <c r="C220">
-        <v>58.28955819456715</v>
+        <v>58.32371870217912</v>
       </c>
       <c r="D220">
-        <v>58.60788143257766</v>
+        <v>59.17307698746648</v>
       </c>
       <c r="E220">
-        <v>58.84868081574612</v>
+        <v>59.23667364856232</v>
       </c>
       <c r="F220">
-        <v>58.87770978371141</v>
+        <v>57.22364476917886</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>59.22516098531885</v>
+        <v>58.00795195352785</v>
       </c>
       <c r="C221">
-        <v>58.12635205718712</v>
+        <v>58.1604784206983</v>
       </c>
       <c r="D221">
-        <v>58.4443571212412</v>
+        <v>59.01379725868325</v>
       </c>
       <c r="E221">
-        <v>58.68491581787185</v>
+        <v>59.08208930209171</v>
       </c>
       <c r="F221">
-        <v>58.71391577046405</v>
+        <v>57.0615040511335</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>59.06102072751427</v>
+        <v>57.84502729941869</v>
       </c>
       <c r="C222">
-        <v>57.96330904941799</v>
+        <v>57.9974013029281</v>
       </c>
       <c r="D222">
-        <v>58.28099625748655</v>
+        <v>58.85468859612247</v>
       </c>
       <c r="E222">
-        <v>58.52131450812169</v>
+        <v>58.9276822223664</v>
       </c>
       <c r="F222">
-        <v>58.55028547433954</v>
+        <v>56.89952539766943</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>58.89704451043612</v>
+        <v>57.6822654931149</v>
       </c>
       <c r="C223">
-        <v>57.80042900823626</v>
+        <v>57.8344871858124</v>
       </c>
       <c r="D223">
-        <v>58.11779867797202</v>
+        <v>58.69575089338307</v>
       </c>
       <c r="E223">
-        <v>58.35787672291275</v>
+        <v>58.77345231479323</v>
       </c>
       <c r="F223">
-        <v>58.38681873172578</v>
+        <v>56.73770864684749</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>58.73323217088516</v>
+        <v>57.51966637190518</v>
       </c>
       <c r="C224">
-        <v>57.63771177078108</v>
+        <v>57.6717359064579</v>
       </c>
       <c r="D224">
-        <v>57.95476421951928</v>
+        <v>58.53698404498483</v>
       </c>
       <c r="E224">
-        <v>58.19460229882564</v>
+        <v>58.61939948527393</v>
       </c>
       <c r="F224">
-        <v>58.22351537917432</v>
+        <v>56.57605363688991</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>58.56958354577587</v>
+        <v>57.3572297732391</v>
       </c>
       <c r="C225">
-        <v>57.47515717435513</v>
+        <v>57.50914730213405</v>
       </c>
       <c r="D225">
-        <v>57.79189271911313</v>
+        <v>58.37838794496143</v>
       </c>
       <c r="E225">
-        <v>58.03149107260442</v>
+        <v>58.46552364021553</v>
       </c>
       <c r="F225">
-        <v>58.06037525340032</v>
+        <v>56.4145602061784</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>58.40609847216611</v>
+        <v>57.19495553472525</v>
       </c>
       <c r="C226">
-        <v>57.31276505642358</v>
+        <v>57.34672121027306</v>
       </c>
       <c r="D226">
-        <v>57.62918401390146</v>
+        <v>58.21996248726894</v>
       </c>
       <c r="E226">
-        <v>57.86854288115661</v>
+        <v>58.31182468652507</v>
       </c>
       <c r="F226">
-        <v>57.89739819128215</v>
+        <v>56.25322819325423</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>58.24277678718475</v>
+        <v>57.03284349413473</v>
       </c>
       <c r="C227">
-        <v>57.15053525461424</v>
+        <v>57.18445746846962</v>
       </c>
       <c r="D227">
-        <v>57.46663794119501</v>
+        <v>58.06170756543872</v>
       </c>
       <c r="E227">
-        <v>57.70575756155281</v>
+        <v>58.15830253161084</v>
       </c>
       <c r="F227">
-        <v>57.73458402986139</v>
+        <v>56.09205743682183</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>58.07961832814186</v>
+        <v>56.87089348939948</v>
       </c>
       <c r="C228">
-        <v>56.98846760671687</v>
+        <v>57.02235591448082</v>
       </c>
       <c r="D228">
-        <v>57.30425433846721</v>
+        <v>57.90362307331235</v>
       </c>
       <c r="E228">
-        <v>57.54313495102658</v>
+        <v>58.00495708338613</v>
       </c>
       <c r="F228">
-        <v>57.57193260634263</v>
+        <v>55.93104777574557</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>57.91662293251806</v>
+        <v>56.70910535861225</v>
       </c>
       <c r="C229">
-        <v>56.82656195068374</v>
+        <v>56.86041638622595</v>
       </c>
       <c r="D229">
-        <v>57.14203304335409</v>
+        <v>57.74570890466691</v>
       </c>
       <c r="E229">
-        <v>57.38067488697428</v>
+        <v>57.85178825028333</v>
       </c>
       <c r="F229">
-        <v>57.40944375809335</v>
+        <v>55.77019904905075</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>57.75379043791892</v>
+        <v>56.54747894002426</v>
       </c>
       <c r="C230">
-        <v>56.66481812462943</v>
+        <v>56.69863872178636</v>
       </c>
       <c r="D230">
-        <v>56.9799738936541</v>
+        <v>57.58796495327439</v>
       </c>
       <c r="E230">
-        <v>57.21837720695498</v>
+        <v>57.69879594124598</v>
       </c>
       <c r="F230">
-        <v>57.2471173226438</v>
+        <v>55.60951109591894</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>57.5911206820852</v>
+        <v>56.38601407204885</v>
       </c>
       <c r="C231">
-        <v>56.50323596683037</v>
+        <v>56.53702275940535</v>
       </c>
       <c r="D231">
-        <v>56.81807672732795</v>
+        <v>57.4303911124178</v>
       </c>
       <c r="E231">
-        <v>57.05624174869027</v>
+        <v>57.54598006572974</v>
       </c>
       <c r="F231">
-        <v>57.08495313768664</v>
+        <v>55.4489837556923</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>57.42861350283206</v>
+        <v>56.22471059326105</v>
       </c>
       <c r="C232">
-        <v>56.34181531572466</v>
+        <v>56.3755683374879</v>
       </c>
       <c r="D232">
-        <v>56.65634138249838</v>
+        <v>57.27298727571572</v>
       </c>
       <c r="E232">
-        <v>56.89426835006403</v>
+        <v>57.39334053370303</v>
       </c>
       <c r="F232">
-        <v>56.92295104107698</v>
+        <v>55.28861686787823</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>57.26626873821431</v>
+        <v>56.0635683423961</v>
       </c>
       <c r="C233">
-        <v>56.18055600991173</v>
+        <v>56.21427529460063</v>
       </c>
       <c r="D233">
-        <v>56.49476769744995</v>
+        <v>57.11575333717272</v>
       </c>
       <c r="E233">
-        <v>56.7324568491224</v>
+        <v>57.24087725566865</v>
       </c>
       <c r="F233">
-        <v>56.76111087083214</v>
+        <v>55.12841027214224</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>57.10408622639711</v>
+        <v>55.90258715834706</v>
       </c>
       <c r="C234">
-        <v>56.01945788815294</v>
+        <v>56.05314346947169</v>
       </c>
       <c r="D234">
-        <v>56.33335551062923</v>
+        <v>56.95868919074682</v>
       </c>
       <c r="E234">
-        <v>56.5708070840735</v>
+        <v>57.08859014264961</v>
       </c>
       <c r="F234">
-        <v>56.59943246513152</v>
+        <v>54.96836380831026</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>56.9420658056918</v>
+        <v>55.74176688016751</v>
       </c>
       <c r="C235">
-        <v>55.85852078937076</v>
+        <v>55.89217270099051</v>
       </c>
       <c r="D235">
-        <v>56.17210466064434</v>
+        <v>56.80179473056521</v>
       </c>
       <c r="E235">
-        <v>56.40931889328732</v>
+        <v>56.93647910619382</v>
       </c>
       <c r="F235">
-        <v>56.4379156623164</v>
+        <v>54.8084773163614</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>56.78020731453235</v>
+        <v>55.58110734707402</v>
       </c>
       <c r="C236">
-        <v>55.69774455264883</v>
+        <v>55.73136282820745</v>
       </c>
       <c r="D236">
-        <v>56.01101498626485</v>
+        <v>56.64506985095888</v>
       </c>
       <c r="E236">
-        <v>56.24799211529558</v>
+        <v>56.78454405837315</v>
       </c>
       <c r="F236">
-        <v>56.27656030088981</v>
+        <v>54.64875063643811</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>56.61851059150563</v>
+        <v>55.42060839844218</v>
       </c>
       <c r="C237">
-        <v>55.53712901723173</v>
+        <v>55.5707136903341</v>
       </c>
       <c r="D237">
-        <v>55.85008632642158</v>
+        <v>56.48851444580255</v>
       </c>
       <c r="E237">
-        <v>56.08682658879157</v>
+        <v>56.63278491180164</v>
       </c>
       <c r="F237">
-        <v>56.11536621951635</v>
+        <v>54.48918360884605</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>56.45697547536132</v>
+        <v>55.2602698738062</v>
       </c>
       <c r="C238">
-        <v>55.37667402252487</v>
+        <v>55.41022512674281</v>
       </c>
       <c r="D238">
-        <v>55.68931852020638</v>
+        <v>56.33212840755101</v>
       </c>
       <c r="E238">
-        <v>55.92582215262996</v>
+        <v>56.48120157962516</v>
       </c>
       <c r="F238">
-        <v>55.95433325702208</v>
+        <v>54.3297760740482</v>
       </c>
     </row>
   </sheetData>
